--- a/assets/List_AllInputs.xlsx
+++ b/assets/List_AllInputs.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coals01826\Desktop\Coding\hanson-bas\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schra02155\PycharmProjects\hanson-bas\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B2E65E-40E0-4ACF-B8B7-C85FACA30D26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAC0199-52EA-491B-9E7A-88DB0898717D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3168" uniqueCount="408">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -1040,13 +1041,217 @@
   </si>
   <si>
     <t>10.1.13.71/pe/vav218.xml</t>
+  </si>
+  <si>
+    <t>actuator</t>
+  </si>
+  <si>
+    <t>    damper-actuator</t>
+  </si>
+  <si>
+    <t>    valve-actuator</t>
+  </si>
+  <si>
+    <t>airHandlingEquip</t>
+  </si>
+  <si>
+    <t>    ahu</t>
+  </si>
+  <si>
+    <t>        doas</t>
+  </si>
+  <si>
+    <t>            mau</t>
+  </si>
+  <si>
+    <t>        rtu</t>
+  </si>
+  <si>
+    <t>    fcu</t>
+  </si>
+  <si>
+    <t>        crac</t>
+  </si>
+  <si>
+    <t>        unitVent</t>
+  </si>
+  <si>
+    <t>    heatPump</t>
+  </si>
+  <si>
+    <t>airTerminalUnit</t>
+  </si>
+  <si>
+    <t>    cav</t>
+  </si>
+  <si>
+    <t>    vav</t>
+  </si>
+  <si>
+    <t>        coolingOnly-vav</t>
+  </si>
+  <si>
+    <t>        fanPowered-vav</t>
+  </si>
+  <si>
+    <t>battery</t>
+  </si>
+  <si>
+    <t>    hot-water-boiler</t>
+  </si>
+  <si>
+    <t>    steam-boiler</t>
+  </si>
+  <si>
+    <t>chiller</t>
+  </si>
+  <si>
+    <t>conduit</t>
+  </si>
+  <si>
+    <t>    duct</t>
+  </si>
+  <si>
+    <t>    pipe</t>
+  </si>
+  <si>
+    <t>    wire</t>
+  </si>
+  <si>
+    <t>coolingTower</t>
+  </si>
+  <si>
+    <t>fumeHood</t>
+  </si>
+  <si>
+    <t>heatExchanger</t>
+  </si>
+  <si>
+    <t>    coil</t>
+  </si>
+  <si>
+    <t>        coolingCoil</t>
+  </si>
+  <si>
+    <t>        heatingCoil</t>
+  </si>
+  <si>
+    <t>humidifier-equip</t>
+  </si>
+  <si>
+    <t>luminaire</t>
+  </si>
+  <si>
+    <t>meter</t>
+  </si>
+  <si>
+    <t>    elec-meter</t>
+  </si>
+  <si>
+    <t>        ac-elec-meter</t>
+  </si>
+  <si>
+    <t>        dc-elec-meter</t>
+  </si>
+  <si>
+    <t>    flow-meter</t>
+  </si>
+  <si>
+    <t>    thermal-meter</t>
+  </si>
+  <si>
+    <t>motor</t>
+  </si>
+  <si>
+    <t>    fan-motor</t>
+  </si>
+  <si>
+    <t>    pump-motor</t>
+  </si>
+  <si>
+    <t>    vfd</t>
+  </si>
+  <si>
+    <t>panel</t>
+  </si>
+  <si>
+    <t>    controls-panel</t>
+  </si>
+  <si>
+    <t>    elec-panel</t>
+  </si>
+  <si>
+    <t>plant</t>
+  </si>
+  <si>
+    <t>    chilled-water-plant</t>
+  </si>
+  <si>
+    <t>    hot-water-plant</t>
+  </si>
+  <si>
+    <t>    steam-plant</t>
+  </si>
+  <si>
+    <t>rack</t>
+  </si>
+  <si>
+    <t>radiantEquip</t>
+  </si>
+  <si>
+    <t>    chilledBeam</t>
+  </si>
+  <si>
+    <t>    radiantFloor</t>
+  </si>
+  <si>
+    <t>    radiator</t>
+  </si>
+  <si>
+    <t>tank</t>
+  </si>
+  <si>
+    <t>thermostat</t>
+  </si>
+  <si>
+    <t>verticalTransport</t>
+  </si>
+  <si>
+    <t>    elevator</t>
+  </si>
+  <si>
+    <t>    escalator</t>
+  </si>
+  <si>
+    <t>    movingWalkway</t>
+  </si>
+  <si>
+    <t>boiler, gas</t>
+  </si>
+  <si>
+    <t>ahu, rtu</t>
+  </si>
+  <si>
+    <t>airTerminalUnit, vav</t>
+  </si>
+  <si>
+    <t>pump, motor</t>
+  </si>
+  <si>
+    <t>Equip_Markers</t>
+  </si>
+  <si>
+    <t>Measurement_Marker</t>
+  </si>
+  <si>
+    <t>his, point, writable, sensor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1067,16 +1272,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1099,17 +1322,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFEEEEEE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1413,10 +1665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M440"/>
+  <dimension ref="A1:O440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E436" workbookViewId="0">
-      <selection activeCell="M436" sqref="M436"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,10 +1685,12 @@
     <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.5703125" customWidth="1"/>
     <col min="12" max="12" width="10.42578125" customWidth="1"/>
-    <col min="13" max="13" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>247</v>
       </c>
@@ -1476,8 +1730,14 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1517,8 +1777,14 @@
       <c r="M2" s="2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>401</v>
+      </c>
+      <c r="O2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1555,8 +1821,11 @@
       <c r="L3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1593,8 +1862,11 @@
       <c r="L4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1628,8 +1900,11 @@
       <c r="L5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1663,8 +1938,11 @@
       <c r="L6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1698,8 +1976,11 @@
       <c r="L7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1733,8 +2014,11 @@
       <c r="L8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1768,8 +2052,11 @@
       <c r="L9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1803,8 +2090,11 @@
       <c r="L10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1841,8 +2131,11 @@
       <c r="L11">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1876,8 +2169,11 @@
       <c r="L12">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O12" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1911,8 +2207,11 @@
       <c r="L13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1949,8 +2248,11 @@
       <c r="L14">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1984,8 +2286,11 @@
       <c r="L15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2022,8 +2327,14 @@
       <c r="M16" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>402</v>
+      </c>
+      <c r="O16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2057,8 +2368,11 @@
       <c r="L17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2095,8 +2409,11 @@
       <c r="L18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2130,8 +2447,11 @@
       <c r="L19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O19" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2165,8 +2485,11 @@
       <c r="L20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2203,8 +2526,14 @@
       <c r="M21" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>402</v>
+      </c>
+      <c r="O21" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2241,8 +2570,11 @@
       <c r="L22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2279,8 +2611,11 @@
       <c r="L23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2314,8 +2649,11 @@
       <c r="L24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O24" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2349,8 +2687,11 @@
       <c r="L25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2390,8 +2731,14 @@
       <c r="M26" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>403</v>
+      </c>
+      <c r="O26" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2428,8 +2775,11 @@
       <c r="L27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O27" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2466,8 +2816,11 @@
       <c r="L28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O28" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2501,8 +2854,11 @@
       <c r="L29">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O29" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2536,8 +2892,11 @@
       <c r="L30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O30" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2574,8 +2933,14 @@
       <c r="M31" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" t="s">
+        <v>403</v>
+      </c>
+      <c r="O31" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2612,8 +2977,11 @@
       <c r="L32">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O32" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2650,8 +3018,11 @@
       <c r="L33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O33" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2685,8 +3056,11 @@
       <c r="L34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O34" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2720,8 +3094,11 @@
       <c r="L35">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O35" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2758,8 +3135,14 @@
       <c r="M36" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" t="s">
+        <v>403</v>
+      </c>
+      <c r="O36" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2796,8 +3179,11 @@
       <c r="L37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O37" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2834,8 +3220,11 @@
       <c r="L38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O38" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2869,8 +3258,11 @@
       <c r="L39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O39" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2910,8 +3302,14 @@
       <c r="M40" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" t="s">
+        <v>403</v>
+      </c>
+      <c r="O40" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2948,8 +3346,11 @@
       <c r="L41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O41" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2983,8 +3384,11 @@
       <c r="L42">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O42" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3021,8 +3425,11 @@
       <c r="L43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O43" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3059,8 +3466,11 @@
       <c r="L44">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O44" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3097,8 +3507,11 @@
       <c r="L45">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O45" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3135,8 +3548,14 @@
       <c r="M46" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" t="s">
+        <v>403</v>
+      </c>
+      <c r="O46" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3176,8 +3595,14 @@
       <c r="M47" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47" t="s">
+        <v>403</v>
+      </c>
+      <c r="O47" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3214,8 +3639,11 @@
       <c r="L48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O48" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3249,8 +3677,11 @@
       <c r="L49">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O49" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3287,8 +3718,11 @@
       <c r="L50">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O50" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3322,8 +3756,11 @@
       <c r="L51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O51" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3357,8 +3794,11 @@
       <c r="L52">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O52" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3398,8 +3838,14 @@
       <c r="M53" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53" t="s">
+        <v>403</v>
+      </c>
+      <c r="O53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3436,8 +3882,11 @@
       <c r="L54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O54" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3471,8 +3920,11 @@
       <c r="L55">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O55" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3512,8 +3964,14 @@
       <c r="M56" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N56" t="s">
+        <v>403</v>
+      </c>
+      <c r="O56" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3550,8 +4008,11 @@
       <c r="L57">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O57" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3588,8 +4049,11 @@
       <c r="L58">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O58" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3623,8 +4087,11 @@
       <c r="L59">
         <v>7</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O59" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3661,8 +4128,11 @@
       <c r="L60">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O60" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3699,8 +4169,11 @@
       <c r="L61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O61" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3737,8 +4210,14 @@
       <c r="M62" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N62" t="s">
+        <v>403</v>
+      </c>
+      <c r="O62" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3775,8 +4254,11 @@
       <c r="L63">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O63" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3813,8 +4295,11 @@
       <c r="L64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O64" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3848,8 +4333,11 @@
       <c r="L65">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O65" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3886,8 +4374,14 @@
       <c r="M66" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N66" t="s">
+        <v>403</v>
+      </c>
+      <c r="O66" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3924,8 +4418,11 @@
       <c r="L67">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O67" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3962,8 +4459,11 @@
       <c r="L68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O68" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3997,8 +4497,11 @@
       <c r="L69">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O69" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4035,8 +4538,14 @@
       <c r="M70" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N70" t="s">
+        <v>403</v>
+      </c>
+      <c r="O70" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4073,8 +4582,11 @@
       <c r="L71">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O71" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4111,8 +4623,11 @@
       <c r="L72">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O72" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4149,8 +4664,11 @@
       <c r="L73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O73" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4184,8 +4702,11 @@
       <c r="L74">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O74" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4222,8 +4743,14 @@
       <c r="M75" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N75" t="s">
+        <v>403</v>
+      </c>
+      <c r="O75" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4260,8 +4787,11 @@
       <c r="L76">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O76" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4298,8 +4828,11 @@
       <c r="L77">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O77" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4336,8 +4869,11 @@
       <c r="L78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O78" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4374,8 +4910,11 @@
       <c r="L79">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O79" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4409,8 +4948,11 @@
       <c r="L80">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O80" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4450,8 +4992,14 @@
       <c r="M81" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N81" t="s">
+        <v>403</v>
+      </c>
+      <c r="O81" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4488,8 +5036,11 @@
       <c r="L82">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O82" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4526,8 +5077,11 @@
       <c r="L83">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O83" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4561,8 +5115,11 @@
       <c r="L84">
         <v>7</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O84" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4596,8 +5153,11 @@
       <c r="L85">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O85" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4634,8 +5194,14 @@
       <c r="M86" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N86" t="s">
+        <v>403</v>
+      </c>
+      <c r="O86" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4672,8 +5238,11 @@
       <c r="L87">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O87" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4710,8 +5279,11 @@
       <c r="L88">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O88" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4748,8 +5320,11 @@
       <c r="L89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O89" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4783,8 +5358,11 @@
       <c r="L90">
         <v>2</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O90" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4824,8 +5402,14 @@
       <c r="M91" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N91" t="s">
+        <v>403</v>
+      </c>
+      <c r="O91" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4862,8 +5446,11 @@
       <c r="L92">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O92" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4897,8 +5484,11 @@
       <c r="L93">
         <v>7</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O93" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4935,8 +5525,11 @@
       <c r="L94">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O94" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4970,8 +5563,11 @@
       <c r="L95">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O95" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5011,8 +5607,14 @@
       <c r="M96" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N96" t="s">
+        <v>403</v>
+      </c>
+      <c r="O96" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5049,8 +5651,11 @@
       <c r="L97">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O97" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5084,8 +5689,11 @@
       <c r="L98">
         <v>7</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O98" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5122,8 +5730,11 @@
       <c r="L99">
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O99" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5157,8 +5768,11 @@
       <c r="L100">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O100" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5198,8 +5812,14 @@
       <c r="M101" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N101" t="s">
+        <v>403</v>
+      </c>
+      <c r="O101" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -5236,8 +5856,11 @@
       <c r="L102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O102" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -5271,8 +5894,11 @@
       <c r="L103">
         <v>7</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O103" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -5312,8 +5938,14 @@
       <c r="M104" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N104" t="s">
+        <v>403</v>
+      </c>
+      <c r="O104" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -5350,8 +5982,11 @@
       <c r="L105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O105" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -5385,8 +6020,11 @@
       <c r="L106">
         <v>7</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O106" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -5426,8 +6064,14 @@
       <c r="M107" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N107" t="s">
+        <v>403</v>
+      </c>
+      <c r="O107" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -5464,8 +6108,11 @@
       <c r="L108">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O108" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -5499,8 +6146,11 @@
       <c r="L109">
         <v>7</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O109" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -5537,8 +6187,11 @@
       <c r="L110">
         <v>3</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O110" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -5572,8 +6225,11 @@
       <c r="L111">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O111" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -5613,8 +6269,14 @@
       <c r="M112" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N112" t="s">
+        <v>403</v>
+      </c>
+      <c r="O112" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -5648,8 +6310,11 @@
       <c r="L113">
         <v>7</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O113" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -5686,8 +6351,11 @@
       <c r="L114">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O114" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -5724,8 +6392,11 @@
       <c r="L115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O115" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -5759,8 +6430,11 @@
       <c r="L116">
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O116" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -5800,8 +6474,14 @@
       <c r="M117" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N117" t="s">
+        <v>403</v>
+      </c>
+      <c r="O117" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -5838,8 +6518,11 @@
       <c r="L118">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O118" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -5873,8 +6556,11 @@
       <c r="L119">
         <v>7</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O119" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -5911,8 +6597,11 @@
       <c r="L120">
         <v>5</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O120" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -5949,8 +6638,11 @@
       <c r="L121">
         <v>3</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O121" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -5984,8 +6676,11 @@
       <c r="L122">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O122" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -6022,8 +6717,14 @@
       <c r="M123" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N123" t="s">
+        <v>403</v>
+      </c>
+      <c r="O123" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -6060,8 +6761,11 @@
       <c r="L124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O124" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -6098,8 +6802,11 @@
       <c r="L125">
         <v>2</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O125" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -6139,8 +6846,14 @@
       <c r="M126" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N126" t="s">
+        <v>403</v>
+      </c>
+      <c r="O126" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -6177,8 +6890,11 @@
       <c r="L127">
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O127" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -6212,8 +6928,11 @@
       <c r="L128">
         <v>7</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O128" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -6250,8 +6969,11 @@
       <c r="L129">
         <v>3</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O129" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -6285,8 +7007,11 @@
       <c r="L130">
         <v>2</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O130" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -6320,8 +7045,11 @@
       <c r="L131">
         <v>5</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O131" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -6361,8 +7089,14 @@
       <c r="M132" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N132" t="s">
+        <v>403</v>
+      </c>
+      <c r="O132" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -6396,8 +7130,11 @@
       <c r="L133">
         <v>7</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O133" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -6434,8 +7171,11 @@
       <c r="L134">
         <v>4</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O134" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -6472,8 +7212,11 @@
       <c r="L135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O135" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -6507,8 +7250,11 @@
       <c r="L136">
         <v>5</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O136" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -6545,8 +7291,14 @@
       <c r="M137" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N137" t="s">
+        <v>403</v>
+      </c>
+      <c r="O137" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -6583,8 +7335,11 @@
       <c r="L138">
         <v>4</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O138" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -6621,8 +7376,11 @@
       <c r="L139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O139" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -6659,8 +7417,11 @@
       <c r="L140">
         <v>3</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O140" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -6697,8 +7458,11 @@
       <c r="L141">
         <v>5</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O141" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -6732,8 +7496,11 @@
       <c r="L142">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O142" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -6770,8 +7537,14 @@
       <c r="M143" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N143" t="s">
+        <v>403</v>
+      </c>
+      <c r="O143" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -6808,8 +7581,11 @@
       <c r="L144">
         <v>4</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O144" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -6846,8 +7622,11 @@
       <c r="L145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O145" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -6881,8 +7660,11 @@
       <c r="L146">
         <v>2</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O146" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -6922,8 +7704,14 @@
       <c r="M147" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N147" t="s">
+        <v>403</v>
+      </c>
+      <c r="O147" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -6960,8 +7748,11 @@
       <c r="L148">
         <v>4</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O148" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -6995,8 +7786,11 @@
       <c r="L149">
         <v>7</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O149" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -7033,8 +7827,11 @@
       <c r="L150">
         <v>3</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O150" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -7068,8 +7865,11 @@
       <c r="L151">
         <v>2</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O151" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -7109,8 +7909,14 @@
       <c r="M152" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N152" t="s">
+        <v>403</v>
+      </c>
+      <c r="O152" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -7147,8 +7953,11 @@
       <c r="L153">
         <v>4</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O153" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -7182,8 +7991,11 @@
       <c r="L154">
         <v>7</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O154" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -7220,8 +8032,11 @@
       <c r="L155">
         <v>3</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O155" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -7255,8 +8070,11 @@
       <c r="L156">
         <v>2</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O156" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -7296,8 +8114,14 @@
       <c r="M157" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N157" t="s">
+        <v>403</v>
+      </c>
+      <c r="O157" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -7334,8 +8158,11 @@
       <c r="L158">
         <v>4</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O158" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -7369,8 +8196,11 @@
       <c r="L159">
         <v>7</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O159" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -7407,8 +8237,11 @@
       <c r="L160">
         <v>3</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O160" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -7442,8 +8275,11 @@
       <c r="L161">
         <v>2</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O161" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -7483,8 +8319,14 @@
       <c r="M162" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N162" t="s">
+        <v>403</v>
+      </c>
+      <c r="O162" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -7521,8 +8363,11 @@
       <c r="L163">
         <v>4</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O163" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -7556,8 +8401,11 @@
       <c r="L164">
         <v>7</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O164" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -7594,8 +8442,11 @@
       <c r="L165">
         <v>3</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O165" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -7629,8 +8480,11 @@
       <c r="L166">
         <v>2</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O166" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -7667,8 +8521,14 @@
       <c r="M167" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N167" t="s">
+        <v>403</v>
+      </c>
+      <c r="O167" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -7705,8 +8565,11 @@
       <c r="L168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O168" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -7743,8 +8606,11 @@
       <c r="L169">
         <v>3</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O169" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -7781,8 +8647,11 @@
       <c r="L170">
         <v>4</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O170" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -7816,8 +8685,11 @@
       <c r="L171">
         <v>7</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O171" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -7857,8 +8729,14 @@
       <c r="M172" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N172" t="s">
+        <v>403</v>
+      </c>
+      <c r="O172" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -7895,8 +8773,11 @@
       <c r="L173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O173" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -7930,8 +8811,11 @@
       <c r="L174">
         <v>7</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O174" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -7965,8 +8849,11 @@
       <c r="L175">
         <v>3</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O175" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -8006,8 +8893,14 @@
       <c r="M176" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N176" t="s">
+        <v>403</v>
+      </c>
+      <c r="O176" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -8044,8 +8937,11 @@
       <c r="L177">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O177" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -8079,8 +8975,11 @@
       <c r="L178">
         <v>7</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O178" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -8117,8 +9016,11 @@
       <c r="L179">
         <v>3</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O179" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -8152,8 +9054,11 @@
       <c r="L180">
         <v>2</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O180" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -8193,8 +9098,14 @@
       <c r="M181" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N181" t="s">
+        <v>403</v>
+      </c>
+      <c r="O181" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -8231,8 +9142,11 @@
       <c r="L182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O182" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -8269,8 +9183,11 @@
       <c r="L183">
         <v>4</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O183" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -8304,8 +9221,11 @@
       <c r="L184">
         <v>7</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O184" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -8339,8 +9259,11 @@
       <c r="L185">
         <v>2</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O185" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -8374,8 +9297,11 @@
       <c r="L186">
         <v>5</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O186" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -8415,8 +9341,14 @@
       <c r="M187" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N187" t="s">
+        <v>403</v>
+      </c>
+      <c r="O187" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -8453,8 +9385,11 @@
       <c r="L188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O188" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -8488,8 +9423,11 @@
       <c r="L189">
         <v>7</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O189" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -8523,8 +9461,11 @@
       <c r="L190">
         <v>2</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O190" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -8564,8 +9505,14 @@
       <c r="M191" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N191" t="s">
+        <v>403</v>
+      </c>
+      <c r="O191" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -8602,8 +9549,11 @@
       <c r="L192">
         <v>4</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O192" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -8637,8 +9587,11 @@
       <c r="L193">
         <v>7</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O193" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -8675,8 +9628,11 @@
       <c r="L194">
         <v>3</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O194" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -8713,8 +9669,11 @@
       <c r="L195">
         <v>5</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O195" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -8748,8 +9707,11 @@
       <c r="L196">
         <v>2</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O196" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -8786,8 +9748,14 @@
       <c r="M197" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N197" t="s">
+        <v>403</v>
+      </c>
+      <c r="O197" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -8824,8 +9792,11 @@
       <c r="L198">
         <v>4</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O198" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -8862,8 +9833,11 @@
       <c r="L199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O199" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -8900,8 +9874,11 @@
       <c r="L200">
         <v>3</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O200" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -8938,8 +9915,11 @@
       <c r="L201">
         <v>5</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O201" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -8973,8 +9953,11 @@
       <c r="L202">
         <v>2</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O202" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -9014,8 +9997,14 @@
       <c r="M203" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N203" t="s">
+        <v>403</v>
+      </c>
+      <c r="O203" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -9052,8 +10041,11 @@
       <c r="L204">
         <v>3</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O204" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -9087,8 +10079,11 @@
       <c r="L205">
         <v>7</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O205" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -9125,8 +10120,11 @@
       <c r="L206">
         <v>4</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O206" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -9163,8 +10161,11 @@
       <c r="L207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O207" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -9198,8 +10199,11 @@
       <c r="L208">
         <v>2</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O208" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -9239,8 +10243,14 @@
       <c r="M209" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N209" t="s">
+        <v>403</v>
+      </c>
+      <c r="O209" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -9277,8 +10287,11 @@
       <c r="L210">
         <v>4</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O210" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -9312,8 +10325,11 @@
       <c r="L211">
         <v>7</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O211" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -9350,8 +10366,11 @@
       <c r="L212">
         <v>3</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O212" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -9385,8 +10404,11 @@
       <c r="L213">
         <v>2</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O213" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -9420,8 +10442,11 @@
       <c r="L214">
         <v>5</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O214" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -9461,8 +10486,14 @@
       <c r="M215" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N215" t="s">
+        <v>403</v>
+      </c>
+      <c r="O215" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -9499,8 +10530,11 @@
       <c r="L216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O216" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -9537,8 +10571,11 @@
       <c r="L217">
         <v>4</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O217" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -9572,8 +10609,11 @@
       <c r="L218">
         <v>7</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O218" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -9607,8 +10647,11 @@
       <c r="L219">
         <v>2</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O219" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -9645,8 +10688,14 @@
       <c r="M220" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N220" t="s">
+        <v>403</v>
+      </c>
+      <c r="O220" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -9683,8 +10732,11 @@
       <c r="L221">
         <v>4</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O221" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -9721,8 +10773,11 @@
       <c r="L222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O222" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -9759,8 +10814,11 @@
       <c r="L223">
         <v>3</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O223" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -9794,8 +10852,11 @@
       <c r="L224">
         <v>2</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O224" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -9832,8 +10893,14 @@
       <c r="M225" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N225" t="s">
+        <v>403</v>
+      </c>
+      <c r="O225" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -9870,8 +10937,11 @@
       <c r="L226">
         <v>3</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O226" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -9908,8 +10978,11 @@
       <c r="L227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O227" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -9946,8 +11019,11 @@
       <c r="L228">
         <v>4</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O228" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -9981,8 +11057,11 @@
       <c r="L229">
         <v>7</v>
       </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O229" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -10022,8 +11101,14 @@
       <c r="M230" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N230" t="s">
+        <v>403</v>
+      </c>
+      <c r="O230" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -10060,8 +11145,11 @@
       <c r="L231">
         <v>4</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O231" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -10095,8 +11183,11 @@
       <c r="L232">
         <v>7</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O232" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -10133,8 +11224,11 @@
       <c r="L233">
         <v>3</v>
       </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O233" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -10168,8 +11262,11 @@
       <c r="L234">
         <v>2</v>
       </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O234" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -10209,8 +11306,14 @@
       <c r="M235" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N235" t="s">
+        <v>403</v>
+      </c>
+      <c r="O235" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -10247,8 +11350,11 @@
       <c r="L236">
         <v>4</v>
       </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O236" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -10282,8 +11388,11 @@
       <c r="L237">
         <v>7</v>
       </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O237" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -10320,8 +11429,11 @@
       <c r="L238">
         <v>3</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O238" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -10355,8 +11467,11 @@
       <c r="L239">
         <v>2</v>
       </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O239" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -10396,8 +11511,14 @@
       <c r="M240" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N240" t="s">
+        <v>403</v>
+      </c>
+      <c r="O240" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -10434,8 +11555,11 @@
       <c r="L241">
         <v>4</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O241" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -10469,8 +11593,11 @@
       <c r="L242">
         <v>7</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O242" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -10507,8 +11634,11 @@
       <c r="L243">
         <v>3</v>
       </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O243" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -10542,8 +11672,11 @@
       <c r="L244">
         <v>2</v>
       </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O244" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -10580,8 +11713,14 @@
       <c r="M245" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N245" t="s">
+        <v>403</v>
+      </c>
+      <c r="O245" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -10618,8 +11757,11 @@
       <c r="L246">
         <v>4</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O246" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -10656,8 +11798,11 @@
       <c r="L247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O247" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -10691,8 +11836,11 @@
       <c r="L248">
         <v>2</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O248" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -10732,8 +11880,14 @@
       <c r="M249" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N249" t="s">
+        <v>403</v>
+      </c>
+      <c r="O249" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -10770,8 +11924,11 @@
       <c r="L250">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O250" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -10805,8 +11962,11 @@
       <c r="L251">
         <v>7</v>
       </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O251" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -10846,8 +12006,14 @@
       <c r="M252" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N252" t="s">
+        <v>403</v>
+      </c>
+      <c r="O252" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -10884,8 +12050,11 @@
       <c r="L253">
         <v>3</v>
       </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O253" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -10919,8 +12088,11 @@
       <c r="L254">
         <v>7</v>
       </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O254" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -10957,8 +12129,11 @@
       <c r="L255">
         <v>4</v>
       </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O255" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -10995,8 +12170,11 @@
       <c r="L256">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O256" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -11030,8 +12208,11 @@
       <c r="L257">
         <v>2</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O257" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -11071,8 +12252,14 @@
       <c r="M258" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N258" t="s">
+        <v>403</v>
+      </c>
+      <c r="O258" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -11109,8 +12296,11 @@
       <c r="L259">
         <v>3</v>
       </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O259" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -11147,8 +12337,11 @@
       <c r="L260">
         <v>5</v>
       </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O260" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -11185,8 +12378,11 @@
       <c r="L261">
         <v>4</v>
       </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O261" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -11220,8 +12416,11 @@
       <c r="L262">
         <v>7</v>
       </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O262" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -11255,8 +12454,11 @@
       <c r="L263">
         <v>2</v>
       </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O263" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -11296,8 +12498,14 @@
       <c r="M264" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N264" t="s">
+        <v>403</v>
+      </c>
+      <c r="O264" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -11334,8 +12542,11 @@
       <c r="L265">
         <v>3</v>
       </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O265" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -11369,8 +12580,11 @@
       <c r="L266">
         <v>7</v>
       </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O266" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -11407,8 +12621,11 @@
       <c r="L267">
         <v>4</v>
       </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O267" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -11445,8 +12662,11 @@
       <c r="L268">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O268" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -11480,8 +12700,11 @@
       <c r="L269">
         <v>2</v>
       </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O269" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -11521,8 +12744,14 @@
       <c r="M270" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N270" t="s">
+        <v>403</v>
+      </c>
+      <c r="O270" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -11559,8 +12788,11 @@
       <c r="L271">
         <v>4</v>
       </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O271" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -11594,8 +12826,11 @@
       <c r="L272">
         <v>7</v>
       </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O272" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -11632,8 +12867,11 @@
       <c r="L273">
         <v>3</v>
       </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O273" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -11667,8 +12905,11 @@
       <c r="L274">
         <v>2</v>
       </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O274" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -11702,8 +12943,11 @@
       <c r="L275">
         <v>5</v>
       </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O275" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -11743,8 +12987,14 @@
       <c r="M276" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N276" t="s">
+        <v>403</v>
+      </c>
+      <c r="O276" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -11781,8 +13031,11 @@
       <c r="L277">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O277" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -11819,8 +13072,11 @@
       <c r="L278">
         <v>4</v>
       </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O278" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -11854,8 +13110,11 @@
       <c r="L279">
         <v>7</v>
       </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O279" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -11889,8 +13148,11 @@
       <c r="L280">
         <v>2</v>
       </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O280" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -11927,8 +13189,14 @@
       <c r="M281" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N281" t="s">
+        <v>404</v>
+      </c>
+      <c r="O281" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -11962,8 +13230,11 @@
       <c r="L282">
         <v>2</v>
       </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O282" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -12000,8 +13271,14 @@
       <c r="M283" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N283" t="s">
+        <v>402</v>
+      </c>
+      <c r="O283" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -12035,8 +13312,11 @@
       <c r="L284">
         <v>3</v>
       </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O284" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -12070,8 +13350,11 @@
       <c r="L285">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O285" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -12105,8 +13388,11 @@
       <c r="L286">
         <v>4</v>
       </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O286" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -12140,8 +13426,11 @@
       <c r="L287">
         <v>5</v>
       </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O287" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -12175,8 +13464,11 @@
       <c r="L288">
         <v>2</v>
       </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O288" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -12210,8 +13502,11 @@
       <c r="L289">
         <v>3</v>
       </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O289" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -12245,8 +13540,11 @@
       <c r="L290">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O290" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -12280,8 +13578,11 @@
       <c r="L291">
         <v>4</v>
       </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O291" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -12318,8 +13619,14 @@
       <c r="M292" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N292" t="s">
+        <v>403</v>
+      </c>
+      <c r="O292" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -12356,8 +13663,11 @@
       <c r="L293">
         <v>4</v>
       </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O293" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -12394,8 +13704,11 @@
       <c r="L294">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O294" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -12429,8 +13742,11 @@
       <c r="L295">
         <v>7</v>
       </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O295" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -12467,8 +13783,14 @@
       <c r="M296" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N296" t="s">
+        <v>403</v>
+      </c>
+      <c r="O296" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -12505,8 +13827,11 @@
       <c r="L297">
         <v>4</v>
       </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O297" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -12543,8 +13868,11 @@
       <c r="L298">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O298" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -12581,8 +13909,11 @@
       <c r="L299">
         <v>5</v>
       </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O299" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -12616,8 +13947,11 @@
       <c r="L300">
         <v>7</v>
       </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O300" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -12654,8 +13988,14 @@
       <c r="M301" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N301" t="s">
+        <v>403</v>
+      </c>
+      <c r="O301" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -12692,8 +14032,11 @@
       <c r="L302">
         <v>4</v>
       </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O302" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -12730,8 +14073,11 @@
       <c r="L303">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O303" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -12765,8 +14111,11 @@
       <c r="L304">
         <v>7</v>
       </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O304" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -12803,8 +14152,14 @@
       <c r="M305" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N305" t="s">
+        <v>403</v>
+      </c>
+      <c r="O305" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -12841,8 +14196,11 @@
       <c r="L306">
         <v>4</v>
       </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O306" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -12876,8 +14234,11 @@
       <c r="L307">
         <v>3</v>
       </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O307" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -12911,8 +14272,11 @@
       <c r="L308">
         <v>5</v>
       </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O308" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -12949,8 +14313,11 @@
       <c r="L309">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O309" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -12984,8 +14351,11 @@
       <c r="L310">
         <v>7</v>
       </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O310" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -13022,8 +14392,14 @@
       <c r="M311" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N311" t="s">
+        <v>403</v>
+      </c>
+      <c r="O311" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -13060,8 +14436,11 @@
       <c r="L312">
         <v>3</v>
       </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O312" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -13098,8 +14477,11 @@
       <c r="L313">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O313" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -13133,8 +14515,11 @@
       <c r="L314">
         <v>7</v>
       </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O314" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -13171,8 +14556,14 @@
       <c r="M315" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N315" t="s">
+        <v>403</v>
+      </c>
+      <c r="O315" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -13209,8 +14600,11 @@
       <c r="L316">
         <v>4</v>
       </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O316" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -13247,8 +14641,11 @@
       <c r="L317">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O317" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -13282,8 +14679,11 @@
       <c r="L318">
         <v>7</v>
       </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O318" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -13317,8 +14717,11 @@
       <c r="L319">
         <v>3</v>
       </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O319" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -13355,8 +14758,14 @@
       <c r="M320" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N320" t="s">
+        <v>403</v>
+      </c>
+      <c r="O320" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -13393,8 +14802,11 @@
       <c r="L321">
         <v>4</v>
       </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O321" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -13428,8 +14840,11 @@
       <c r="L322">
         <v>3</v>
       </c>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O322" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -13466,8 +14881,11 @@
       <c r="L323">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O323" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -13501,8 +14919,11 @@
       <c r="L324">
         <v>7</v>
       </c>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O324" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -13539,8 +14960,14 @@
       <c r="M325" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N325" t="s">
+        <v>403</v>
+      </c>
+      <c r="O325" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -13577,8 +15004,11 @@
       <c r="L326">
         <v>4</v>
       </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O326" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -13615,8 +15045,11 @@
       <c r="L327">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O327" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -13653,8 +15086,11 @@
       <c r="L328">
         <v>3</v>
       </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O328" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -13688,8 +15124,11 @@
       <c r="L329">
         <v>7</v>
       </c>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O329" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -13726,8 +15165,14 @@
       <c r="M330" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N330" t="s">
+        <v>403</v>
+      </c>
+      <c r="O330" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -13764,8 +15209,11 @@
       <c r="L331">
         <v>4</v>
       </c>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O331" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -13802,8 +15250,11 @@
       <c r="L332">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O332" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -13837,8 +15288,11 @@
       <c r="L333">
         <v>7</v>
       </c>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O333" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -13875,8 +15329,14 @@
       <c r="M334" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N334" t="s">
+        <v>403</v>
+      </c>
+      <c r="O334" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -13913,8 +15373,11 @@
       <c r="L335">
         <v>4</v>
       </c>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O335" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -13951,8 +15414,11 @@
       <c r="L336">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O336" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -13986,8 +15452,11 @@
       <c r="L337">
         <v>7</v>
       </c>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O337" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -14024,8 +15493,14 @@
       <c r="M338" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N338" t="s">
+        <v>403</v>
+      </c>
+      <c r="O338" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -14062,8 +15537,11 @@
       <c r="L339">
         <v>4</v>
       </c>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O339" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -14100,8 +15578,11 @@
       <c r="L340">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O340" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -14135,8 +15616,11 @@
       <c r="L341">
         <v>7</v>
       </c>
-    </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O341" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -14173,8 +15657,14 @@
       <c r="M342" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N342" t="s">
+        <v>403</v>
+      </c>
+      <c r="O342" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -14211,8 +15701,11 @@
       <c r="L343">
         <v>4</v>
       </c>
-    </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O343" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -14249,8 +15742,11 @@
       <c r="L344">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O344" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -14284,8 +15780,11 @@
       <c r="L345">
         <v>7</v>
       </c>
-    </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O345" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -14322,8 +15821,14 @@
       <c r="M346" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N346" t="s">
+        <v>403</v>
+      </c>
+      <c r="O346" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -14360,8 +15865,11 @@
       <c r="L347">
         <v>4</v>
       </c>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O347" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -14395,8 +15903,11 @@
       <c r="L348">
         <v>3</v>
       </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O348" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -14433,8 +15944,11 @@
       <c r="L349">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O349" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -14468,8 +15982,11 @@
       <c r="L350">
         <v>7</v>
       </c>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O350" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -14506,8 +16023,14 @@
       <c r="M351" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N351" t="s">
+        <v>403</v>
+      </c>
+      <c r="O351" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -14544,8 +16067,11 @@
       <c r="L352">
         <v>4</v>
       </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O352" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -14582,8 +16108,11 @@
       <c r="L353">
         <v>1</v>
       </c>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O353" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -14617,8 +16146,11 @@
       <c r="L354">
         <v>7</v>
       </c>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O354" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -14655,8 +16187,14 @@
       <c r="M355" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N355" t="s">
+        <v>403</v>
+      </c>
+      <c r="O355" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -14693,8 +16231,11 @@
       <c r="L356">
         <v>4</v>
       </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O356" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -14731,8 +16272,11 @@
       <c r="L357">
         <v>1</v>
       </c>
-    </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O357" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -14766,8 +16310,11 @@
       <c r="L358">
         <v>7</v>
       </c>
-    </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O358" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -14804,8 +16351,14 @@
       <c r="M359" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N359" t="s">
+        <v>403</v>
+      </c>
+      <c r="O359" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -14842,8 +16395,11 @@
       <c r="L360">
         <v>4</v>
       </c>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O360" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -14880,8 +16436,11 @@
       <c r="L361">
         <v>1</v>
       </c>
-    </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O361" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -14915,8 +16474,11 @@
       <c r="L362">
         <v>7</v>
       </c>
-    </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O362" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -14953,8 +16515,14 @@
       <c r="M363" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N363" t="s">
+        <v>403</v>
+      </c>
+      <c r="O363" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -14991,8 +16559,11 @@
       <c r="L364">
         <v>4</v>
       </c>
-    </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O364" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -15029,8 +16600,11 @@
       <c r="L365">
         <v>1</v>
       </c>
-    </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O365" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -15064,8 +16638,11 @@
       <c r="L366">
         <v>7</v>
       </c>
-    </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O366" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -15102,8 +16679,14 @@
       <c r="M367" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N367" t="s">
+        <v>403</v>
+      </c>
+      <c r="O367" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -15140,8 +16723,11 @@
       <c r="L368">
         <v>4</v>
       </c>
-    </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O368" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -15178,8 +16764,11 @@
       <c r="L369">
         <v>1</v>
       </c>
-    </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O369" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -15213,8 +16802,11 @@
       <c r="L370">
         <v>7</v>
       </c>
-    </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O370" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -15251,8 +16843,14 @@
       <c r="M371" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N371" t="s">
+        <v>403</v>
+      </c>
+      <c r="O371" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -15289,8 +16887,11 @@
       <c r="L372">
         <v>4</v>
       </c>
-    </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O372" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -15327,8 +16928,11 @@
       <c r="L373">
         <v>1</v>
       </c>
-    </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O373" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -15362,8 +16966,11 @@
       <c r="L374">
         <v>7</v>
       </c>
-    </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O374" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -15400,8 +17007,14 @@
       <c r="M375" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N375" t="s">
+        <v>403</v>
+      </c>
+      <c r="O375" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -15438,8 +17051,11 @@
       <c r="L376">
         <v>4</v>
       </c>
-    </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O376" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -15476,8 +17092,11 @@
       <c r="L377">
         <v>1</v>
       </c>
-    </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O377" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -15511,8 +17130,11 @@
       <c r="L378">
         <v>7</v>
       </c>
-    </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O378" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -15552,8 +17174,14 @@
       <c r="M379" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N379" t="s">
+        <v>403</v>
+      </c>
+      <c r="O379" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -15587,8 +17215,11 @@
       <c r="L380">
         <v>3</v>
       </c>
-    </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O380" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -15622,8 +17253,11 @@
       <c r="L381">
         <v>7</v>
       </c>
-    </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O381" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -15660,8 +17294,14 @@
       <c r="M382" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N382" t="s">
+        <v>403</v>
+      </c>
+      <c r="O382" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -15698,8 +17338,11 @@
       <c r="L383">
         <v>4</v>
       </c>
-    </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O383" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -15736,8 +17379,11 @@
       <c r="L384">
         <v>1</v>
       </c>
-    </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O384" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -15771,8 +17417,11 @@
       <c r="L385">
         <v>7</v>
       </c>
-    </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O385" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -15809,8 +17458,14 @@
       <c r="M386" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N386" t="s">
+        <v>403</v>
+      </c>
+      <c r="O386" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -15847,8 +17502,11 @@
       <c r="L387">
         <v>4</v>
       </c>
-    </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O387" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -15882,8 +17540,11 @@
       <c r="L388">
         <v>3</v>
       </c>
-    </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O388" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -15920,8 +17581,11 @@
       <c r="L389">
         <v>1</v>
       </c>
-    </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O389" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -15955,8 +17619,11 @@
       <c r="L390">
         <v>7</v>
       </c>
-    </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O390" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -15993,8 +17660,14 @@
       <c r="M391" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N391" t="s">
+        <v>403</v>
+      </c>
+      <c r="O391" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -16031,8 +17704,11 @@
       <c r="L392">
         <v>4</v>
       </c>
-    </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O392" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -16069,8 +17745,11 @@
       <c r="L393">
         <v>1</v>
       </c>
-    </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O393" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -16104,8 +17783,11 @@
       <c r="L394">
         <v>7</v>
       </c>
-    </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O394" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -16142,8 +17824,14 @@
       <c r="M395" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N395" t="s">
+        <v>403</v>
+      </c>
+      <c r="O395" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -16180,8 +17868,11 @@
       <c r="L396">
         <v>4</v>
       </c>
-    </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O396" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -16218,8 +17909,11 @@
       <c r="L397">
         <v>2</v>
       </c>
-    </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O397" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -16253,8 +17947,11 @@
       <c r="L398">
         <v>7</v>
       </c>
-    </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O398" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -16288,8 +17985,11 @@
       <c r="L399">
         <v>3</v>
       </c>
-    </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O399" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -16326,8 +18026,14 @@
       <c r="M400" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N400" t="s">
+        <v>403</v>
+      </c>
+      <c r="O400" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -16364,8 +18070,11 @@
       <c r="L401">
         <v>4</v>
       </c>
-    </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O401" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -16402,8 +18111,11 @@
       <c r="L402">
         <v>1</v>
       </c>
-    </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O402" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -16437,8 +18149,11 @@
       <c r="L403">
         <v>7</v>
       </c>
-    </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O403" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -16475,8 +18190,14 @@
       <c r="M404" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N404" t="s">
+        <v>403</v>
+      </c>
+      <c r="O404" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -16513,8 +18234,11 @@
       <c r="L405">
         <v>4</v>
       </c>
-    </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O405" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -16551,8 +18275,11 @@
       <c r="L406">
         <v>1</v>
       </c>
-    </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O406" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -16586,8 +18313,11 @@
       <c r="L407">
         <v>7</v>
       </c>
-    </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O407" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -16624,8 +18354,14 @@
       <c r="M408" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N408" t="s">
+        <v>403</v>
+      </c>
+      <c r="O408" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -16662,8 +18398,11 @@
       <c r="L409">
         <v>4</v>
       </c>
-    </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O409" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -16697,8 +18436,11 @@
       <c r="L410">
         <v>3</v>
       </c>
-    </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O410" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -16735,8 +18477,11 @@
       <c r="L411">
         <v>1</v>
       </c>
-    </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O411" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -16770,8 +18515,11 @@
       <c r="L412">
         <v>7</v>
       </c>
-    </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O412" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -16808,8 +18556,14 @@
       <c r="M413" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N413" t="s">
+        <v>403</v>
+      </c>
+      <c r="O413" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -16846,8 +18600,11 @@
       <c r="L414">
         <v>4</v>
       </c>
-    </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O414" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -16881,8 +18638,11 @@
       <c r="L415">
         <v>3</v>
       </c>
-    </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O415" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -16919,8 +18679,11 @@
       <c r="L416">
         <v>1</v>
       </c>
-    </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O416" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -16957,8 +18720,11 @@
       <c r="L417">
         <v>5</v>
       </c>
-    </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O417" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -16992,8 +18758,11 @@
       <c r="L418">
         <v>7</v>
       </c>
-    </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O418" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -17030,8 +18799,14 @@
       <c r="M419" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N419" t="s">
+        <v>403</v>
+      </c>
+      <c r="O419" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -17068,8 +18843,11 @@
       <c r="L420">
         <v>4</v>
       </c>
-    </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O420" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -17106,8 +18884,11 @@
       <c r="L421">
         <v>1</v>
       </c>
-    </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O421" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -17141,8 +18922,11 @@
       <c r="L422">
         <v>7</v>
       </c>
-    </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O422" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -17179,8 +18963,14 @@
       <c r="M423" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N423" t="s">
+        <v>403</v>
+      </c>
+      <c r="O423" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -17217,8 +19007,11 @@
       <c r="L424">
         <v>4</v>
       </c>
-    </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O424" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -17255,8 +19048,11 @@
       <c r="L425">
         <v>1</v>
       </c>
-    </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O425" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -17290,8 +19086,11 @@
       <c r="L426">
         <v>7</v>
       </c>
-    </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O426" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -17328,8 +19127,14 @@
       <c r="M427" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N427" t="s">
+        <v>403</v>
+      </c>
+      <c r="O427" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -17366,8 +19171,11 @@
       <c r="L428">
         <v>4</v>
       </c>
-    </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O428" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -17404,8 +19212,11 @@
       <c r="L429">
         <v>1</v>
       </c>
-    </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O429" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -17439,8 +19250,11 @@
       <c r="L430">
         <v>7</v>
       </c>
-    </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O430" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -17474,8 +19288,11 @@
       <c r="L431">
         <v>3</v>
       </c>
-    </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O431" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -17512,8 +19329,14 @@
       <c r="M432" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N432" t="s">
+        <v>403</v>
+      </c>
+      <c r="O432" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -17550,8 +19373,11 @@
       <c r="L433">
         <v>4</v>
       </c>
-    </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O433" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -17588,8 +19414,11 @@
       <c r="L434">
         <v>1</v>
       </c>
-    </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O434" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -17623,8 +19452,11 @@
       <c r="L435">
         <v>7</v>
       </c>
-    </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O435" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -17661,8 +19493,14 @@
       <c r="M436" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N436" t="s">
+        <v>403</v>
+      </c>
+      <c r="O436" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -17699,8 +19537,11 @@
       <c r="L437">
         <v>4</v>
       </c>
-    </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O437" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -17737,8 +19578,11 @@
       <c r="L438">
         <v>1</v>
       </c>
-    </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O438" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -17775,8 +19619,11 @@
       <c r="L439">
         <v>3</v>
       </c>
-    </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O439" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -17810,8 +19657,467 @@
       <c r="L440">
         <v>7</v>
       </c>
+      <c r="O440" t="s">
+        <v>407</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8683659-24BB-410A-80E1-6778963F0EAC}">
+  <dimension ref="A1:B62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B51" s="4"/>
+    </row>
+    <row r="52" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B55" s="4"/>
+    </row>
+    <row r="56" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B60" s="4"/>
+    </row>
+    <row r="61" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B61" s="4"/>
+    </row>
+    <row r="62" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B62" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://project-haystack.dev/doc/lib-phIoT/actuator" xr:uid="{9A56AEA6-D48F-443B-B840-A29F68433996}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://project-haystack.dev/doc/lib-phIoT/damper-actuator" xr:uid="{173EC627-0851-4644-8179-70A42F9EA3BB}"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://project-haystack.dev/doc/lib-phIoT/valve-actuator" xr:uid="{3CADFB60-1291-463A-9D4A-0C6D8BD363A4}"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://project-haystack.dev/doc/lib-phIoT/airHandlingEquip" xr:uid="{0540A41E-4DDF-4F10-BEF7-6333020F68BA}"/>
+    <hyperlink ref="A5" r:id="rId5" display="https://project-haystack.dev/doc/lib-phIoT/ahu" xr:uid="{D19D1B79-7F81-4AD7-818A-0DAE5B043DF2}"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://project-haystack.dev/doc/lib-phIoT/doas" xr:uid="{538137DC-50F5-4FA5-95F8-0EF317B18182}"/>
+    <hyperlink ref="A7" r:id="rId7" display="https://project-haystack.dev/doc/lib-phIoT/mau" xr:uid="{9771A036-095E-4DB1-970A-6B630FB0CF99}"/>
+    <hyperlink ref="A8" r:id="rId8" display="https://project-haystack.dev/doc/lib-phIoT/rtu" xr:uid="{FE36C8E4-B624-47F3-894E-3297188D9275}"/>
+    <hyperlink ref="A9" r:id="rId9" display="https://project-haystack.dev/doc/lib-phIoT/fcu" xr:uid="{56BDD24A-7DD6-4519-AF60-C04FBD3767CE}"/>
+    <hyperlink ref="A10" r:id="rId10" display="https://project-haystack.dev/doc/lib-phIoT/crac" xr:uid="{2BE2D3F9-E389-41E2-8618-2E756CDD05A5}"/>
+    <hyperlink ref="A11" r:id="rId11" display="https://project-haystack.dev/doc/lib-phIoT/unitVent" xr:uid="{54BE4D85-31B1-4570-B8E1-7CFF83C42F69}"/>
+    <hyperlink ref="A12" r:id="rId12" display="https://project-haystack.dev/doc/lib-phIoT/heatPump" xr:uid="{9FA2754D-17DC-4CC9-84BE-3E25C98C2819}"/>
+    <hyperlink ref="A13" r:id="rId13" display="https://project-haystack.dev/doc/lib-phIoT/airTerminalUnit" xr:uid="{FFA3866B-DE11-40EB-9250-D38752DAB71C}"/>
+    <hyperlink ref="A14" r:id="rId14" display="https://project-haystack.dev/doc/lib-phIoT/cav" xr:uid="{3F2E0BAE-B2E2-41D4-A6AB-897059107A2C}"/>
+    <hyperlink ref="A15" r:id="rId15" display="https://project-haystack.dev/doc/lib-phIoT/vav" xr:uid="{6A5F8E9B-6BA5-4298-9978-980F6FA82F49}"/>
+    <hyperlink ref="A16" r:id="rId16" display="https://project-haystack.dev/doc/lib-phIoT/coolingOnly-vav" xr:uid="{997F826E-9A7B-435D-8624-88D93E2C20C2}"/>
+    <hyperlink ref="A17" r:id="rId17" display="https://project-haystack.dev/doc/lib-phIoT/fanPowered-vav" xr:uid="{AFF09DBC-3B9F-4C97-AFEF-7F3FDD90E101}"/>
+    <hyperlink ref="A18" r:id="rId18" display="https://project-haystack.dev/doc/lib-phIoT/battery" xr:uid="{835A7326-5668-4C32-94AB-3AD7070A6D93}"/>
+    <hyperlink ref="A19" r:id="rId19" display="https://project-haystack.dev/doc/lib-phIoT/boiler" xr:uid="{5EEE0A7D-B11D-4D37-92F0-594D894BD6F8}"/>
+    <hyperlink ref="A20" r:id="rId20" display="https://project-haystack.dev/doc/lib-phIoT/hot-water-boiler" xr:uid="{249A9380-BC53-468E-B042-00261A72B072}"/>
+    <hyperlink ref="A21" r:id="rId21" display="https://project-haystack.dev/doc/lib-phIoT/steam-boiler" xr:uid="{BFA8954B-B45C-4F9C-B004-E3E4C2A7F14F}"/>
+    <hyperlink ref="A22" r:id="rId22" display="https://project-haystack.dev/doc/lib-phIoT/chiller" xr:uid="{B402CDCB-6221-499B-9415-A715FF448320}"/>
+    <hyperlink ref="A23" r:id="rId23" display="https://project-haystack.dev/doc/lib-phIoT/conduit" xr:uid="{1630D377-04DF-445B-A1C7-7251F390D97E}"/>
+    <hyperlink ref="A24" r:id="rId24" display="https://project-haystack.dev/doc/lib-phIoT/duct" xr:uid="{B1831490-0DE0-490B-B392-0607F0AA473D}"/>
+    <hyperlink ref="A25" r:id="rId25" display="https://project-haystack.dev/doc/lib-phIoT/pipe" xr:uid="{01F9EA7F-BAA9-4491-860E-99D1834E2031}"/>
+    <hyperlink ref="A26" r:id="rId26" display="https://project-haystack.dev/doc/lib-phIoT/wire" xr:uid="{3B0B30E4-C478-4A7F-90A5-CD97175EA68A}"/>
+    <hyperlink ref="A27" r:id="rId27" display="https://project-haystack.dev/doc/lib-phIoT/coolingTower" xr:uid="{F465F2D9-1AF6-4099-BFEA-735418F8F162}"/>
+    <hyperlink ref="A28" r:id="rId28" display="https://project-haystack.dev/doc/lib-phIoT/fumeHood" xr:uid="{F98EFBEB-55FE-4AD0-A49F-AB47A19E34DA}"/>
+    <hyperlink ref="A29" r:id="rId29" display="https://project-haystack.dev/doc/lib-phIoT/heatExchanger" xr:uid="{451A0E38-B22D-4C11-AFFB-233D099E4AAE}"/>
+    <hyperlink ref="A30" r:id="rId30" display="https://project-haystack.dev/doc/lib-phIoT/coil" xr:uid="{75644999-C4CD-4707-848A-0D6F1609FF2D}"/>
+    <hyperlink ref="A31" r:id="rId31" display="https://project-haystack.dev/doc/lib-phIoT/coolingCoil" xr:uid="{96D22A54-8707-4FD3-ADE6-5FD67A003AFE}"/>
+    <hyperlink ref="A32" r:id="rId32" display="https://project-haystack.dev/doc/lib-phIoT/heatingCoil" xr:uid="{55428FAC-031D-44D2-96CC-4372A440344A}"/>
+    <hyperlink ref="A33" r:id="rId33" display="https://project-haystack.dev/doc/lib-phIoT/humidifier-equip" xr:uid="{5033C8D6-5940-4A40-97FA-71B4BAB14E85}"/>
+    <hyperlink ref="A34" r:id="rId34" display="https://project-haystack.dev/doc/lib-phIoT/luminaire" xr:uid="{E6802907-0AAA-4533-8D03-E2C381921544}"/>
+    <hyperlink ref="A35" r:id="rId35" display="https://project-haystack.dev/doc/lib-phIoT/meter" xr:uid="{6D6049CA-D14C-41C7-9C91-B5652DD3E463}"/>
+    <hyperlink ref="A36" r:id="rId36" display="https://project-haystack.dev/doc/lib-phIoT/elec-meter" xr:uid="{2FA83744-AD19-47E6-999E-63A655CF3810}"/>
+    <hyperlink ref="A37" r:id="rId37" display="https://project-haystack.dev/doc/lib-phIoT/ac-elec-meter" xr:uid="{A5432112-B233-4A53-962D-832D3EBC4F98}"/>
+    <hyperlink ref="A38" r:id="rId38" display="https://project-haystack.dev/doc/lib-phIoT/dc-elec-meter" xr:uid="{C6C01E30-9F36-4719-9EA9-28F0FD283C74}"/>
+    <hyperlink ref="A39" r:id="rId39" display="https://project-haystack.dev/doc/lib-phIoT/flow-meter" xr:uid="{2C28B171-7198-45C6-B1CD-641B5ADE8BA7}"/>
+    <hyperlink ref="A40" r:id="rId40" display="https://project-haystack.dev/doc/lib-phIoT/thermal-meter" xr:uid="{75B97761-4C58-4AAF-830C-5E14FCF2C203}"/>
+    <hyperlink ref="A41" r:id="rId41" display="https://project-haystack.dev/doc/lib-phIoT/motor" xr:uid="{D8E12E5D-CB92-43A5-A426-DA011274CE39}"/>
+    <hyperlink ref="A42" r:id="rId42" display="https://project-haystack.dev/doc/lib-phIoT/fan-motor" xr:uid="{0125BE2F-3DE0-4870-8070-AA5796810156}"/>
+    <hyperlink ref="A43" r:id="rId43" display="https://project-haystack.dev/doc/lib-phIoT/pump-motor" xr:uid="{42BC71E8-CC6F-44F1-9AEE-721AFD628182}"/>
+    <hyperlink ref="A44" r:id="rId44" display="https://project-haystack.dev/doc/lib-phIoT/vfd" xr:uid="{543A8081-98E6-4541-9D14-C6F1BF0B4A74}"/>
+    <hyperlink ref="A45" r:id="rId45" display="https://project-haystack.dev/doc/lib-phIoT/panel" xr:uid="{B78423DD-C421-4D6C-9ACA-E4EBFD9558BF}"/>
+    <hyperlink ref="A46" r:id="rId46" display="https://project-haystack.dev/doc/lib-phIct/controls-panel" xr:uid="{76B45C6A-94EC-47F3-ADFB-9EAF108F4F61}"/>
+    <hyperlink ref="A47" r:id="rId47" display="https://project-haystack.dev/doc/lib-phIoT/elec-panel" xr:uid="{8C10A756-D73B-4C81-B5F9-05D5E5A76A0B}"/>
+    <hyperlink ref="A48" r:id="rId48" display="https://project-haystack.dev/doc/lib-phIoT/plant" xr:uid="{D43C48E5-C743-47C0-A14C-B668A61AE322}"/>
+    <hyperlink ref="A49" r:id="rId49" display="https://project-haystack.dev/doc/lib-phIoT/chilled-water-plant" xr:uid="{E939A81B-AF1C-4C4F-8107-A2CF3D235A97}"/>
+    <hyperlink ref="A50" r:id="rId50" display="https://project-haystack.dev/doc/lib-phIoT/hot-water-plant" xr:uid="{C395C3E6-D5B5-4474-B001-A3476902683D}"/>
+    <hyperlink ref="A51" r:id="rId51" display="https://project-haystack.dev/doc/lib-phIoT/steam-plant" xr:uid="{0F555992-05D0-48C8-A34D-17FEA42EF8F6}"/>
+    <hyperlink ref="A52" r:id="rId52" display="https://project-haystack.dev/doc/lib-phIct/rack" xr:uid="{176A8C09-BD5C-4057-BBC7-C431FE148101}"/>
+    <hyperlink ref="A53" r:id="rId53" display="https://project-haystack.dev/doc/lib-phIoT/radiantEquip" xr:uid="{614672F1-0AEE-43D7-8A53-FED334E0809D}"/>
+    <hyperlink ref="A54" r:id="rId54" display="https://project-haystack.dev/doc/lib-phIoT/chilledBeam" xr:uid="{32B4C23E-7472-4C39-9522-4C4B10252778}"/>
+    <hyperlink ref="A55" r:id="rId55" display="https://project-haystack.dev/doc/lib-phIoT/radiantFloor" xr:uid="{B9029C70-6177-4870-90AA-32408474E391}"/>
+    <hyperlink ref="A56" r:id="rId56" display="https://project-haystack.dev/doc/lib-phIoT/radiator" xr:uid="{7EF408BA-319E-4E7C-A510-389276A29FE8}"/>
+    <hyperlink ref="A57" r:id="rId57" display="https://project-haystack.dev/doc/lib-phIoT/tank" xr:uid="{25E74272-5745-4F39-8486-11902DBADBA5}"/>
+    <hyperlink ref="A58" r:id="rId58" display="https://project-haystack.dev/doc/lib-phIoT/thermostat" xr:uid="{55C72781-68E8-4F43-8733-B6B4B2FCF6C9}"/>
+    <hyperlink ref="A59" r:id="rId59" display="https://project-haystack.dev/doc/lib-phIoT/verticalTransport" xr:uid="{FB86E95E-8580-4E43-980C-AEF0CDAC8735}"/>
+    <hyperlink ref="A60" r:id="rId60" display="https://project-haystack.dev/doc/lib-phIoT/elevator" xr:uid="{71C5D0E2-81CD-4391-AD71-19505AF0137B}"/>
+    <hyperlink ref="A61" r:id="rId61" display="https://project-haystack.dev/doc/lib-phIoT/escalator" xr:uid="{9F8D5717-9A4B-4252-AD89-446974B4D7FC}"/>
+    <hyperlink ref="A62" r:id="rId62" display="https://project-haystack.dev/doc/lib-phIoT/movingWalkway" xr:uid="{5721ED9B-27FA-4EA6-953D-5704BD0A9583}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId63"/>
 </worksheet>
 </file>
--- a/assets/List_AllInputs.xlsx
+++ b/assets/List_AllInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schra02155\PycharmProjects\hanson-bas\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3A8088-2735-4044-8DDA-8D5B7A37301D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DC8B14-650E-4B85-82B8-7FC166395371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Unit _Table" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$440</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3116" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3117" uniqueCount="353">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -1091,6 +1091,9 @@
   </si>
   <si>
     <t>https://www.project-haystack.org/download/units.txt</t>
+  </si>
+  <si>
+    <t>Str</t>
   </si>
 </sst>
 </file>
@@ -1495,7 +1498,7 @@
   <dimension ref="A1:Q440"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I3" sqref="I3:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1515,7 +1518,8 @@
     <col min="13" max="13" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -19442,9 +19446,8 @@
       <c r="O367" t="s">
         <v>345</v>
       </c>
-      <c r="P367" t="str">
-        <f t="shared" si="5"/>
-        <v>Bool</v>
+      <c r="P367" t="s">
+        <v>352</v>
       </c>
       <c r="Q367" t="str">
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H367,'Unit _Table'!A:A)), "")</f>
@@ -23011,7 +23014,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1" xr:uid="{8CE24A3D-7D3D-4394-835E-D7C0753FCA57}"/>
+  <autoFilter ref="A1:Q440" xr:uid="{8CE24A3D-7D3D-4394-835E-D7C0753FCA57}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -23022,7 +23025,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/assets/List_AllInputs.xlsx
+++ b/assets/List_AllInputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schra02155\PycharmProjects\hanson-bas\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coals01826\Desktop\Coding\hanson-bas\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DC8B14-650E-4B85-82B8-7FC166395371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE93AA64-FAF2-4A66-9EE5-F248372DA070}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,23 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$440</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3117" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="387">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -1094,13 +1083,115 @@
   </si>
   <si>
     <t>Str</t>
+  </si>
+  <si>
+    <t>Missing Points</t>
+  </si>
+  <si>
+    <t>Dom HwPump</t>
+  </si>
+  <si>
+    <t>Set point</t>
+  </si>
+  <si>
+    <t>Perimeter Pump OA Start SP</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Decimal place error when pulled into SkySpark. (*100 to correct)</t>
+  </si>
+  <si>
+    <t>StPt</t>
+  </si>
+  <si>
+    <t>Occupy</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>Supply Air Set Point</t>
+  </si>
+  <si>
+    <t>Supply Air Temperature Setpoint</t>
+  </si>
+  <si>
+    <t>Today's Start Time</t>
+  </si>
+  <si>
+    <t>Scheduled Start Time</t>
+  </si>
+  <si>
+    <t>Scheduled Stop Time</t>
+  </si>
+  <si>
+    <t>RTU2S was not created in SkySpark</t>
+  </si>
+  <si>
+    <t>Cool StPt</t>
+  </si>
+  <si>
+    <t>Heat StPt</t>
+  </si>
+  <si>
+    <t>AdjCool</t>
+  </si>
+  <si>
+    <t>AdjHeat</t>
+  </si>
+  <si>
+    <t>CFM StPt</t>
+  </si>
+  <si>
+    <t>Max CFMSp</t>
+  </si>
+  <si>
+    <t>MinCFMSp</t>
+  </si>
+  <si>
+    <t>Damper</t>
+  </si>
+  <si>
+    <t>RHt Vlv</t>
+  </si>
+  <si>
+    <t>Area Served</t>
+  </si>
+  <si>
+    <t>Fintube</t>
+  </si>
+  <si>
+    <t>RmT B</t>
+  </si>
+  <si>
+    <t>RmT C</t>
+  </si>
+  <si>
+    <t>RmT D</t>
+  </si>
+  <si>
+    <t>Not bringing in lights points: Light, Current Line, Tim Min, Ovrd Time, Area, Start Time, Stop Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not bringing in Liebert units (1, 2) points: System Operating State (System Info), System Status (System Info), Return Air Temperature (System Operations), Air Temperature Set Point (Air), Return Dew Point (System Operations), Return Humidity (Humidity), Humidity Set Point (Humdity), Supply Air Temperature (System Operations), Compressor Hours (Compressors-&gt;Compressor[1]), Dehumidifier Hours (Dehumidifier), Fan Hours (Fan), Leibert 1 run enable, Leibert 2 run enable, Clogged Air Filter </t>
+  </si>
+  <si>
+    <t>Not bringing in Unit Heaters points: Vlv, RmT, StPt, VAV#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not bringing in FinTube: RmT, Heat StPt, Fintube, </t>
+  </si>
+  <si>
+    <t>rtu2 is titled unusually when you select it, it doesn't seem to point to a site?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1495,13 +1586,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q440"/>
+  <dimension ref="A1:S440"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I17"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
@@ -1511,18 +1602,20 @@
     <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" customWidth="1"/>
-    <col min="13" max="13" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="25.140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="25" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="32.42578125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="32" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>246</v>
       </c>
@@ -1574,8 +1667,14 @@
       <c r="Q1" s="3" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1629,8 +1728,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H2,'Unit _Table'!A:A)), "")</f>
         <v>fahrenheit</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="S2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1678,8 +1780,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H3,'Unit _Table'!A:A)), "")</f>
         <v>fahrenheit</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="S3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1727,8 +1832,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H4,'Unit _Table'!A:A)), "")</f>
         <v>fahrenheit</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="S4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1773,8 +1881,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H5,'Unit _Table'!A:A)), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="S5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1820,7 +1931,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1866,7 +1977,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1912,7 +2023,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1958,7 +2069,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2003,8 +2114,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H10,'Unit _Table'!A:A)), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2052,8 +2166,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H11,'Unit _Table'!A:A)), "")</f>
         <v>fahrenheit</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2098,8 +2215,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H12,'Unit _Table'!A:A)), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2144,8 +2264,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H13,'Unit _Table'!A:A)), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2193,8 +2316,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H14,'Unit _Table'!A:A)), "")</f>
         <v>fahrenheit</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2240,7 +2366,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2291,8 +2417,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H16,'Unit _Table'!A:A)), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2340,8 +2469,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H17,'Unit _Table'!A:A)), "")</f>
         <v>parts_per_million</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2389,8 +2521,14 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H18,'Unit _Table'!A:A)), "")</f>
         <v>percent_relative_humidity</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18" t="s">
+        <v>361</v>
+      </c>
+      <c r="S18" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2435,8 +2573,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H19,'Unit _Table'!A:A)), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2482,7 +2623,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2533,8 +2674,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H21,'Unit _Table'!A:A)), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2582,8 +2726,14 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H22,'Unit _Table'!A:A)), "")</f>
         <v>percent_relative_humidity</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22" t="s">
+        <v>360</v>
+      </c>
+      <c r="S22" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2631,8 +2781,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H23,'Unit _Table'!A:A)), "")</f>
         <v>parts_per_million</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2677,8 +2830,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H24,'Unit _Table'!A:A)), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2724,7 +2880,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2778,8 +2934,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H26,'Unit _Table'!A:A)), "")</f>
         <v>fahrenheit</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2827,8 +2986,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H27,'Unit _Table'!A:A)), "")</f>
         <v>fahrenheit</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2876,8 +3038,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H28,'Unit _Table'!A:A)), "")</f>
         <v>fahrenheit</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2922,8 +3087,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H29,'Unit _Table'!A:A)), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="R29" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2968,8 +3136,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H30,'Unit _Table'!A:A)), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="R30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3020,8 +3191,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H31,'Unit _Table'!A:A)), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="R31" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3069,8 +3243,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H32,'Unit _Table'!A:A)), "")</f>
         <v>fahrenheit</v>
       </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="R32" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3118,8 +3295,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H33,'Unit _Table'!A:A)), "")</f>
         <v>fahrenheit</v>
       </c>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="R33" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3164,8 +3344,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H34,'Unit _Table'!A:A)), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="R34" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3210,8 +3393,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H35,'Unit _Table'!A:A)), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="R35" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3262,8 +3448,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H36,'Unit _Table'!A:A)), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="R36" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3311,8 +3500,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H37,'Unit _Table'!A:A)), "")</f>
         <v>fahrenheit</v>
       </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="R37" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3360,8 +3552,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H38,'Unit _Table'!A:A)), "")</f>
         <v>fahrenheit</v>
       </c>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="R38" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3406,8 +3601,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H39,'Unit _Table'!A:A)), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="R39" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3461,8 +3659,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H40,'Unit _Table'!A:A)), "")</f>
         <v>fahrenheit</v>
       </c>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="R40" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3511,7 +3712,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3557,7 +3758,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3606,7 +3807,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3655,7 +3856,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3704,7 +3905,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3756,7 +3957,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3811,7 +4012,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3860,7 +4061,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3906,7 +4107,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3955,7 +4156,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4001,7 +4202,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4047,7 +4248,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4102,7 +4303,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4151,7 +4352,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4197,7 +4398,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4252,7 +4453,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4301,7 +4502,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4350,7 +4551,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4396,7 +4597,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4445,7 +4646,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4494,7 +4695,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4546,7 +4747,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4595,7 +4796,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4644,7 +4845,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4690,7 +4891,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4742,7 +4943,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4791,7 +4992,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4840,7 +5041,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4886,7 +5087,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4938,7 +5139,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4987,7 +5188,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5036,7 +5237,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5085,7 +5286,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5131,7 +5332,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5183,7 +5384,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5232,7 +5433,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5281,7 +5482,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5330,7 +5531,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5379,7 +5580,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5425,7 +5626,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5480,7 +5681,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5529,7 +5730,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5578,7 +5779,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5624,7 +5825,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5670,7 +5871,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5722,7 +5923,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5771,7 +5972,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5820,7 +6021,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5869,7 +6070,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5915,7 +6116,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5970,7 +6171,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6019,7 +6220,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6065,7 +6266,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6114,7 +6315,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6160,7 +6361,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6215,7 +6416,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6264,7 +6465,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6310,7 +6511,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6359,7 +6560,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -6405,7 +6606,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -6460,7 +6661,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -6509,7 +6710,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -6555,7 +6756,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6610,7 +6811,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6659,7 +6860,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6705,7 +6906,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6760,7 +6961,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6809,7 +7010,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6855,7 +7056,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6904,7 +7105,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6950,7 +7151,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -7005,7 +7206,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -7051,7 +7252,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -7100,7 +7301,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -7149,7 +7350,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -7195,7 +7396,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -7250,7 +7451,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -7299,7 +7500,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -7345,7 +7546,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -7394,7 +7595,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -7443,7 +7644,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -7489,7 +7690,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -7541,7 +7742,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -7590,7 +7791,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="125" spans="1:17">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -7639,7 +7840,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="126" spans="1:17">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -7694,7 +7895,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -7743,7 +7944,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="128" spans="1:17">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -7789,7 +7990,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:17">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -7838,7 +8039,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="130" spans="1:17">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -7884,7 +8085,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:17">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -7930,7 +8131,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:17">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -7985,7 +8186,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="133" spans="1:17">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -8031,7 +8232,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:17">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -8080,7 +8281,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="135" spans="1:17">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -8129,7 +8330,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="136" spans="1:17">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -8175,7 +8376,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:17">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -8227,7 +8428,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:17">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -8276,7 +8477,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="139" spans="1:17">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -8325,7 +8526,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="140" spans="1:17">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -8374,7 +8575,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="141" spans="1:17">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -8423,7 +8624,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="142" spans="1:17">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -8469,7 +8670,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:17">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -8521,7 +8722,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:17">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -8570,7 +8771,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="145" spans="1:17">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -8619,7 +8820,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="146" spans="1:17">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -8665,7 +8866,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:17">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -8720,7 +8921,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="148" spans="1:17">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -8769,7 +8970,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="149" spans="1:17">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -8815,7 +9016,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:17">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -8864,7 +9065,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="151" spans="1:17">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -8910,7 +9111,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:17">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -8965,7 +9166,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="153" spans="1:17">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -9014,7 +9215,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="154" spans="1:17">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -9060,7 +9261,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:17">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -9109,7 +9310,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="156" spans="1:17">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -9155,7 +9356,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:17">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -9210,7 +9411,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="158" spans="1:17">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -9259,7 +9460,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -9305,7 +9506,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:17">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -9354,7 +9555,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="161" spans="1:17">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -9400,7 +9601,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:17">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -9455,7 +9656,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="163" spans="1:17">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -9504,7 +9705,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="164" spans="1:17">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -9550,7 +9751,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:17">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -9599,7 +9800,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="166" spans="1:17">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -9645,7 +9846,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:17">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -9697,7 +9898,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:17">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -9746,7 +9947,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="169" spans="1:17">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -9795,7 +9996,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="170" spans="1:17">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -9844,7 +10045,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="171" spans="1:17">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -9890,7 +10091,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:17">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -9945,7 +10146,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="173" spans="1:17">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -9994,7 +10195,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="174" spans="1:17">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -10040,7 +10241,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:17">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -10086,7 +10287,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:17">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -10141,7 +10342,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="177" spans="1:17">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -10190,7 +10391,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="178" spans="1:17">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -10236,7 +10437,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:17">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -10285,7 +10486,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="180" spans="1:17">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -10331,7 +10532,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:17">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -10386,7 +10587,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="182" spans="1:17">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -10435,7 +10636,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="183" spans="1:17">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -10484,7 +10685,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="184" spans="1:17">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -10530,7 +10731,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:17">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -10576,7 +10777,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:17">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -10622,7 +10823,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:17">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -10677,7 +10878,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="188" spans="1:17">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -10726,7 +10927,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="189" spans="1:17">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -10772,7 +10973,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:17">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -10818,7 +11019,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:17">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -10873,7 +11074,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="192" spans="1:17">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -10922,7 +11123,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="193" spans="1:17">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -10968,7 +11169,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:17">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -11017,7 +11218,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="195" spans="1:17">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -11066,7 +11267,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="196" spans="1:17">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -11112,7 +11313,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:17">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -11164,7 +11365,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:17">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -11213,7 +11414,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="199" spans="1:17">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -11262,7 +11463,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="200" spans="1:17">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -11311,7 +11512,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="201" spans="1:17">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -11360,7 +11561,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="202" spans="1:17">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -11406,7 +11607,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:17">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -11461,7 +11662,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="204" spans="1:17">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -11510,7 +11711,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="205" spans="1:17">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -11556,7 +11757,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:17">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -11605,7 +11806,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="207" spans="1:17">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -11654,7 +11855,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="208" spans="1:17">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -11700,7 +11901,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:17">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -11755,7 +11956,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="210" spans="1:17">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -11804,7 +12005,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="211" spans="1:17">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -11850,7 +12051,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:17">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -11899,7 +12100,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="213" spans="1:17">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -11945,7 +12146,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:17">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -11991,7 +12192,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:17">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -12046,7 +12247,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="216" spans="1:17">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -12095,7 +12296,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="217" spans="1:17">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -12144,7 +12345,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="218" spans="1:17">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -12190,7 +12391,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:17">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -12236,7 +12437,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:17">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -12288,7 +12489,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:17">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -12337,7 +12538,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="222" spans="1:17">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -12386,7 +12587,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="223" spans="1:17">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -12435,7 +12636,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="224" spans="1:17">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -12481,7 +12682,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:17">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -12533,7 +12734,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:17">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -12582,7 +12783,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="227" spans="1:17">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -12631,7 +12832,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="228" spans="1:17">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -12680,7 +12881,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="229" spans="1:17">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -12726,7 +12927,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:17">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -12781,7 +12982,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="231" spans="1:17">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -12830,7 +13031,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="232" spans="1:17">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -12876,7 +13077,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:17">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -12925,7 +13126,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="234" spans="1:17">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -12971,7 +13172,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:17">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -13026,7 +13227,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="236" spans="1:17">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -13075,7 +13276,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="237" spans="1:17">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -13121,7 +13322,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:17">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -13170,7 +13371,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="239" spans="1:17">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -13216,7 +13417,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:17">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -13271,7 +13472,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="241" spans="1:17">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -13320,7 +13521,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="242" spans="1:17">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -13366,7 +13567,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:17">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -13415,7 +13616,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="244" spans="1:17">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -13461,7 +13662,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:17">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -13513,7 +13714,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:17">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -13562,7 +13763,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="247" spans="1:17">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -13611,7 +13812,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="248" spans="1:17">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -13657,7 +13858,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:17">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -13712,7 +13913,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="250" spans="1:17">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -13761,7 +13962,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="251" spans="1:17">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -13807,7 +14008,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:17">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -13862,7 +14063,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="253" spans="1:17">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -13911,7 +14112,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="254" spans="1:17">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -13957,7 +14158,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:17">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -14006,7 +14207,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="256" spans="1:17">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -14055,7 +14256,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="257" spans="1:17">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -14101,7 +14302,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:17">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -14156,7 +14357,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="259" spans="1:17">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -14205,7 +14406,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="260" spans="1:17">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -14254,7 +14455,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="261" spans="1:17">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -14303,7 +14504,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="262" spans="1:17">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -14349,7 +14550,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:17">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -14395,7 +14596,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:17">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -14450,7 +14651,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="265" spans="1:17">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -14499,7 +14700,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="266" spans="1:17">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -14545,7 +14746,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:17">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -14594,7 +14795,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="268" spans="1:17">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -14643,7 +14844,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="269" spans="1:17">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -14689,7 +14890,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:17">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -14744,7 +14945,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="271" spans="1:17">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -14793,7 +14994,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="272" spans="1:17">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -14839,7 +15040,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:17">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -14888,7 +15089,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="274" spans="1:17">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -14934,7 +15135,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:17">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -14980,7 +15181,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:17">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -15035,7 +15236,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="277" spans="1:17">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -15084,7 +15285,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="278" spans="1:17">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -15133,7 +15334,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="279" spans="1:17">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -15179,7 +15380,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="1:17">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -15225,7 +15426,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:17">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -15277,7 +15478,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:17">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -15323,7 +15524,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:17">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -15374,8 +15575,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H283,'Unit _Table'!A:A)), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="284" spans="1:17">
+      <c r="R283" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -15420,8 +15624,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H284,'Unit _Table'!A:A)), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="285" spans="1:17">
+      <c r="R284" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -15466,8 +15673,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H285,'Unit _Table'!A:A)), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="286" spans="1:17">
+      <c r="R285" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -15512,8 +15722,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H286,'Unit _Table'!A:A)), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="287" spans="1:17">
+      <c r="R286" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -15558,8 +15771,14 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H287,'Unit _Table'!A:A)), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="288" spans="1:17">
+      <c r="R287" t="s">
+        <v>363</v>
+      </c>
+      <c r="S287" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -15604,8 +15823,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H288,'Unit _Table'!A:A)), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="289" spans="1:17">
+      <c r="R288" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -15650,8 +15872,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H289,'Unit _Table'!A:A)), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="290" spans="1:17">
+      <c r="R289" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -15696,8 +15921,11 @@
         <f>_xlfn.IFNA(INDEX('Unit _Table'!B:B, MATCH(H290,'Unit _Table'!A:A)), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="291" spans="1:17">
+      <c r="R290" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -15743,7 +15971,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:17">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -15795,7 +16023,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:17">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -15844,7 +16072,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="294" spans="1:17">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -15893,7 +16121,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="295" spans="1:17">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -15939,7 +16167,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:17">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -15991,7 +16219,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:17">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -16040,7 +16268,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="298" spans="1:17">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -16089,7 +16317,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="299" spans="1:17">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -16138,7 +16366,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="300" spans="1:17">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -16184,7 +16412,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:17">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -16236,7 +16464,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:17">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -16285,7 +16513,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="303" spans="1:17">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -16334,7 +16562,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="304" spans="1:17">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -16380,7 +16608,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="1:17">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -16432,7 +16660,7 @@
         <v/>
       </c>
     </row>
-    <row r="306" spans="1:17">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -16481,7 +16709,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="307" spans="1:17">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -16527,7 +16755,7 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="1:17">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -16573,7 +16801,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="1:17">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -16622,7 +16850,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="310" spans="1:17">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -16668,7 +16896,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="1:17">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -16720,7 +16948,7 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="1:17">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -16769,7 +16997,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="313" spans="1:17">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -16818,7 +17046,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="314" spans="1:17">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -16864,7 +17092,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="1:17">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -16916,7 +17144,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="1:17">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -16965,7 +17193,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="317" spans="1:17">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -17014,7 +17242,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="318" spans="1:17">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -17060,7 +17288,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:17">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -17106,7 +17334,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="1:17">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -17158,7 +17386,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="1:17">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -17207,7 +17435,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="322" spans="1:17">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -17253,7 +17481,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="1:17">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -17302,7 +17530,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="324" spans="1:17">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -17348,7 +17576,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="1:17">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -17400,7 +17628,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="1:17">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -17449,7 +17677,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="327" spans="1:17">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -17498,7 +17726,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="328" spans="1:17">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -17547,7 +17775,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="329" spans="1:17">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -17593,7 +17821,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="1:17">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -17645,7 +17873,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="1:17">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -17694,7 +17922,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="332" spans="1:17">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -17743,7 +17971,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="333" spans="1:17">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -17789,7 +18017,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="1:17">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -17841,7 +18069,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="1:17">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -17890,7 +18118,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="336" spans="1:17">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -17939,7 +18167,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="337" spans="1:17">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -17985,7 +18213,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="1:17">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -18037,7 +18265,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="1:17">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -18086,7 +18314,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="340" spans="1:17">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -18135,7 +18363,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="341" spans="1:17">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -18181,7 +18409,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="1:17">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -18233,7 +18461,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:17">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -18282,7 +18510,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="344" spans="1:17">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -18331,7 +18559,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="345" spans="1:17">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -18377,7 +18605,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="1:17">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -18429,7 +18657,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="1:17">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -18478,7 +18706,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="348" spans="1:17">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -18524,7 +18752,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="1:17">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -18573,7 +18801,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="350" spans="1:17">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -18619,7 +18847,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="1:17">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -18671,7 +18899,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="1:17">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -18720,7 +18948,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="353" spans="1:17">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -18769,7 +18997,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="354" spans="1:17">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -18815,7 +19043,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="1:17">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -18867,7 +19095,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="1:17">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -18916,7 +19144,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="357" spans="1:17">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -18965,7 +19193,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="358" spans="1:17">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -19011,7 +19239,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="1:17">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -19063,7 +19291,7 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="1:17">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -19112,7 +19340,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="361" spans="1:17">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -19161,7 +19389,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="362" spans="1:17">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -19207,7 +19435,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="1:17">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -19259,7 +19487,7 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="1:17">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -19308,7 +19536,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="365" spans="1:17">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -19357,7 +19585,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="366" spans="1:17">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -19403,7 +19631,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="1:17">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -19454,7 +19682,7 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="1:17">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -19503,7 +19731,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="369" spans="1:17">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -19552,7 +19780,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="370" spans="1:17">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -19598,7 +19826,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="1:17">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -19650,7 +19878,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="1:17">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -19699,7 +19927,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="373" spans="1:17">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -19748,7 +19976,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="374" spans="1:17">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -19794,7 +20022,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="1:17">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -19846,7 +20074,7 @@
         <v/>
       </c>
     </row>
-    <row r="376" spans="1:17">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -19895,7 +20123,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="377" spans="1:17">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -19944,7 +20172,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="378" spans="1:17">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -19990,7 +20218,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="1:17">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -20045,7 +20273,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="380" spans="1:17">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -20091,7 +20319,7 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="1:17">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -20137,7 +20365,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="1:17">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -20189,7 +20417,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="1:17">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -20238,7 +20466,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="384" spans="1:17">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -20287,7 +20515,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="385" spans="1:17">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -20333,7 +20561,7 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="1:17">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -20385,7 +20613,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="1:17">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -20434,7 +20662,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="388" spans="1:17">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -20480,7 +20708,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="1:17">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -20529,7 +20757,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="390" spans="1:17">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -20575,7 +20803,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="1:17">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -20627,7 +20855,7 @@
         <v/>
       </c>
     </row>
-    <row r="392" spans="1:17">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -20676,7 +20904,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="393" spans="1:17">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -20725,7 +20953,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="394" spans="1:17">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -20771,7 +20999,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="1:17">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -20823,7 +21051,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="1:17">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -20872,7 +21100,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="397" spans="1:17">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -20921,7 +21149,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="398" spans="1:17">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -20967,7 +21195,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="1:17">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -21013,7 +21241,7 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="1:17">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -21065,7 +21293,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="1:17">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -21114,7 +21342,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="402" spans="1:17">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -21163,7 +21391,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="403" spans="1:17">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -21209,7 +21437,7 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="1:17">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -21261,7 +21489,7 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="1:17">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -21310,7 +21538,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="406" spans="1:17">
+    <row r="406" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -21359,7 +21587,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="407" spans="1:17">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -21405,7 +21633,7 @@
         <v/>
       </c>
     </row>
-    <row r="408" spans="1:17">
+    <row r="408" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -21457,7 +21685,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="1:17">
+    <row r="409" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -21506,7 +21734,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="410" spans="1:17">
+    <row r="410" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -21552,7 +21780,7 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="1:17">
+    <row r="411" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -21601,7 +21829,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="412" spans="1:17">
+    <row r="412" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -21647,7 +21875,7 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="1:17">
+    <row r="413" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -21699,7 +21927,7 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="1:17">
+    <row r="414" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -21748,7 +21976,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="415" spans="1:17">
+    <row r="415" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -21794,7 +22022,7 @@
         <v/>
       </c>
     </row>
-    <row r="416" spans="1:17">
+    <row r="416" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -21843,7 +22071,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="417" spans="1:17">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -21892,7 +22120,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="418" spans="1:17">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -21938,7 +22166,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="1:17">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -21990,7 +22218,7 @@
         <v/>
       </c>
     </row>
-    <row r="420" spans="1:17">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -22039,7 +22267,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="421" spans="1:17">
+    <row r="421" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -22088,7 +22316,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="422" spans="1:17">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -22134,7 +22362,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="1:17">
+    <row r="423" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -22186,7 +22414,7 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="1:17">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -22235,7 +22463,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="425" spans="1:17">
+    <row r="425" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -22284,7 +22512,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="426" spans="1:17">
+    <row r="426" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -22330,7 +22558,7 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="1:17">
+    <row r="427" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -22382,7 +22610,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="1:17">
+    <row r="428" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -22431,7 +22659,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="429" spans="1:17">
+    <row r="429" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -22480,7 +22708,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="430" spans="1:17">
+    <row r="430" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -22526,7 +22754,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="1:17">
+    <row r="431" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -22572,7 +22800,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="1:17">
+    <row r="432" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -22624,7 +22852,7 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="1:17">
+    <row r="433" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -22673,7 +22901,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="434" spans="1:17">
+    <row r="434" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -22722,7 +22950,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="435" spans="1:17">
+    <row r="435" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -22768,7 +22996,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="1:17">
+    <row r="436" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -22820,7 +23048,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="1:17">
+    <row r="437" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -22869,7 +23097,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="438" spans="1:17">
+    <row r="438" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -22918,7 +23146,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="439" spans="1:17">
+    <row r="439" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -22967,7 +23195,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="440" spans="1:17">
+    <row r="440" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -23028,13 +23256,13 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -23045,7 +23273,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -23053,7 +23281,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>

--- a/assets/List_AllInputs.xlsx
+++ b/assets/List_AllInputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coals01826\Desktop\Coding\hanson-bas\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schra02155\PycharmProjects\hanson-bas\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9646E5B4-1F12-4CA2-8594-9E59B883441C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D977591-8586-4702-92AD-2CDFF80DAC63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$463</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1200,7 +1211,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1598,13 +1609,13 @@
   <dimension ref="A1:S463"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
+      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -1627,7 +1638,7 @@
     <col min="19" max="19" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>246</v>
       </c>
@@ -1686,7 +1697,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1744,7 +1755,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1796,7 +1807,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1848,7 +1859,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1897,7 +1908,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1943,7 +1954,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1989,7 +2000,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2035,7 +2046,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2081,7 +2092,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2130,7 +2141,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2182,7 +2193,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2231,7 +2242,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2280,7 +2291,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2332,7 +2343,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2378,7 +2389,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2433,7 +2444,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2485,7 +2496,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2540,7 +2551,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2589,7 +2600,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2635,7 +2646,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2690,7 +2701,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2745,7 +2756,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2797,7 +2808,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2846,7 +2857,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2892,7 +2903,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2947,7 +2958,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2996,7 +3007,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3045,7 +3056,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3091,7 +3102,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3137,7 +3148,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19">
       <c r="A31" s="1"/>
       <c r="C31" t="s">
         <v>374</v>
@@ -3167,7 +3178,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19">
       <c r="A32" s="1"/>
       <c r="C32" t="s">
         <v>375</v>
@@ -3197,7 +3208,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="A33" s="1"/>
       <c r="C33" t="s">
         <v>364</v>
@@ -3227,7 +3238,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="A34" s="1"/>
       <c r="C34" t="s">
         <v>365</v>
@@ -3257,7 +3268,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="A35" s="1"/>
       <c r="C35" t="s">
         <v>44</v>
@@ -3287,7 +3298,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36" s="1"/>
       <c r="C36" t="s">
         <v>376</v>
@@ -3314,7 +3325,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37" s="1"/>
       <c r="C37" t="s">
         <v>377</v>
@@ -3341,7 +3352,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38" s="1"/>
       <c r="C38" t="s">
         <v>366</v>
@@ -3368,7 +3379,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39" s="1"/>
       <c r="C39" t="s">
         <v>367</v>
@@ -3395,7 +3406,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="A40" s="1"/>
       <c r="C40" t="s">
         <v>378</v>
@@ -3422,7 +3433,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="C41" t="s">
         <v>379</v>
       </c>
@@ -3435,6 +3446,9 @@
       <c r="F41" t="s">
         <v>250</v>
       </c>
+      <c r="I41">
+        <v>1000</v>
+      </c>
       <c r="J41" t="s">
         <v>15</v>
       </c>
@@ -3442,7 +3456,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17">
       <c r="C42" t="s">
         <v>368</v>
       </c>
@@ -3455,6 +3469,9 @@
       <c r="F42" t="s">
         <v>250</v>
       </c>
+      <c r="I42">
+        <v>1000</v>
+      </c>
       <c r="J42" t="s">
         <v>15</v>
       </c>
@@ -3462,7 +3479,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="C43" t="s">
         <v>380</v>
       </c>
@@ -3488,7 +3505,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17">
       <c r="C44" t="s">
         <v>381</v>
       </c>
@@ -3514,7 +3531,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
       <c r="C45" t="s">
         <v>382</v>
       </c>
@@ -3540,7 +3557,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17">
       <c r="A46" s="1">
         <v>29</v>
       </c>
@@ -3592,7 +3609,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="A47" s="1">
         <v>30</v>
       </c>
@@ -3641,7 +3658,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17">
       <c r="A48" s="1">
         <v>31</v>
       </c>
@@ -3690,7 +3707,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17">
       <c r="A49" s="1">
         <v>32</v>
       </c>
@@ -3736,7 +3753,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17">
       <c r="A50" s="1">
         <v>33</v>
       </c>
@@ -3782,7 +3799,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17">
       <c r="A51" s="1">
         <v>34</v>
       </c>
@@ -3834,7 +3851,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17">
       <c r="A52" s="1">
         <v>35</v>
       </c>
@@ -3883,7 +3900,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17">
       <c r="A53" s="1">
         <v>36</v>
       </c>
@@ -3932,7 +3949,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17">
       <c r="A54" s="1">
         <v>37</v>
       </c>
@@ -3978,7 +3995,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17">
       <c r="A55" s="1">
         <v>38</v>
       </c>
@@ -4033,7 +4050,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17">
       <c r="A56" s="1">
         <v>39</v>
       </c>
@@ -4082,7 +4099,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17">
       <c r="A57" s="1">
         <v>40</v>
       </c>
@@ -4128,7 +4145,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17">
       <c r="A58" s="1">
         <v>41</v>
       </c>
@@ -4177,7 +4194,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17">
       <c r="A59" s="1">
         <v>42</v>
       </c>
@@ -4226,7 +4243,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17">
       <c r="A60" s="1">
         <v>43</v>
       </c>
@@ -4275,7 +4292,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17">
       <c r="A61" s="1">
         <v>44</v>
       </c>
@@ -4327,7 +4344,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17">
       <c r="A62" s="1">
         <v>45</v>
       </c>
@@ -4382,7 +4399,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17">
       <c r="A63" s="1">
         <v>46</v>
       </c>
@@ -4431,7 +4448,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17">
       <c r="A64" s="1">
         <v>47</v>
       </c>
@@ -4477,7 +4494,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17">
       <c r="A65" s="1">
         <v>48</v>
       </c>
@@ -4526,7 +4543,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17">
       <c r="A66" s="1">
         <v>49</v>
       </c>
@@ -4572,7 +4589,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17">
       <c r="A67" s="1">
         <v>50</v>
       </c>
@@ -4618,7 +4635,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17">
       <c r="A68" s="1">
         <v>51</v>
       </c>
@@ -4673,7 +4690,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17">
       <c r="A69" s="1">
         <v>52</v>
       </c>
@@ -4722,7 +4739,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17">
       <c r="A70" s="1">
         <v>53</v>
       </c>
@@ -4768,7 +4785,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17">
       <c r="A71" s="1">
         <v>54</v>
       </c>
@@ -4823,7 +4840,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17">
       <c r="A72" s="1">
         <v>55</v>
       </c>
@@ -4872,7 +4889,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17">
       <c r="A73" s="1">
         <v>56</v>
       </c>
@@ -4921,7 +4938,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17">
       <c r="A74" s="1">
         <v>57</v>
       </c>
@@ -4967,7 +4984,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17">
       <c r="A75" s="1">
         <v>58</v>
       </c>
@@ -5016,7 +5033,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17">
       <c r="A76" s="1">
         <v>59</v>
       </c>
@@ -5065,7 +5082,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17">
       <c r="A77" s="1">
         <v>60</v>
       </c>
@@ -5117,7 +5134,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17">
       <c r="A78" s="1">
         <v>61</v>
       </c>
@@ -5166,7 +5183,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17">
       <c r="A79" s="1">
         <v>62</v>
       </c>
@@ -5215,7 +5232,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17">
       <c r="A80" s="1">
         <v>63</v>
       </c>
@@ -5261,7 +5278,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17">
       <c r="A81" s="1">
         <v>64</v>
       </c>
@@ -5313,7 +5330,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17">
       <c r="A82" s="1">
         <v>65</v>
       </c>
@@ -5362,7 +5379,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17">
       <c r="A83" s="1">
         <v>66</v>
       </c>
@@ -5411,7 +5428,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17">
       <c r="A84" s="1">
         <v>67</v>
       </c>
@@ -5457,7 +5474,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17">
       <c r="A85" s="1">
         <v>68</v>
       </c>
@@ -5509,7 +5526,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17">
       <c r="A86" s="1">
         <v>69</v>
       </c>
@@ -5558,7 +5575,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17">
       <c r="A87" s="1">
         <v>70</v>
       </c>
@@ -5607,7 +5624,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17">
       <c r="A88" s="1">
         <v>71</v>
       </c>
@@ -5656,7 +5673,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17">
       <c r="A89" s="1">
         <v>72</v>
       </c>
@@ -5702,7 +5719,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17">
       <c r="A90" s="1">
         <v>73</v>
       </c>
@@ -5754,7 +5771,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17">
       <c r="A91" s="1">
         <v>74</v>
       </c>
@@ -5803,7 +5820,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17">
       <c r="A92" s="1">
         <v>75</v>
       </c>
@@ -5852,7 +5869,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17">
       <c r="A93" s="1">
         <v>76</v>
       </c>
@@ -5901,7 +5918,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17">
       <c r="A94" s="1">
         <v>77</v>
       </c>
@@ -5950,7 +5967,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17">
       <c r="A95" s="1">
         <v>78</v>
       </c>
@@ -5996,7 +6013,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17">
       <c r="A96" s="1">
         <v>79</v>
       </c>
@@ -6051,7 +6068,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17">
       <c r="A97" s="1">
         <v>80</v>
       </c>
@@ -6100,7 +6117,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17">
       <c r="A98" s="1">
         <v>81</v>
       </c>
@@ -6149,7 +6166,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17">
       <c r="A99" s="1">
         <v>82</v>
       </c>
@@ -6195,7 +6212,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17">
       <c r="A100" s="1">
         <v>83</v>
       </c>
@@ -6241,7 +6258,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17">
       <c r="A101" s="1">
         <v>84</v>
       </c>
@@ -6293,7 +6310,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17">
       <c r="A102" s="1">
         <v>85</v>
       </c>
@@ -6342,7 +6359,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17">
       <c r="A103" s="1">
         <v>86</v>
       </c>
@@ -6391,7 +6408,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17">
       <c r="A104" s="1">
         <v>87</v>
       </c>
@@ -6440,7 +6457,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17">
       <c r="A105" s="1">
         <v>88</v>
       </c>
@@ -6486,7 +6503,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17">
       <c r="A106" s="1">
         <v>89</v>
       </c>
@@ -6541,7 +6558,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17">
       <c r="A107" s="1">
         <v>90</v>
       </c>
@@ -6590,7 +6607,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17">
       <c r="A108" s="1">
         <v>91</v>
       </c>
@@ -6636,7 +6653,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17">
       <c r="A109" s="1">
         <v>92</v>
       </c>
@@ -6685,7 +6702,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17">
       <c r="A110" s="1">
         <v>93</v>
       </c>
@@ -6731,7 +6748,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17">
       <c r="A111" s="1">
         <v>94</v>
       </c>
@@ -6786,7 +6803,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17">
       <c r="A112" s="1">
         <v>95</v>
       </c>
@@ -6835,7 +6852,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17">
       <c r="A113" s="1">
         <v>96</v>
       </c>
@@ -6881,7 +6898,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17">
       <c r="A114" s="1">
         <v>97</v>
       </c>
@@ -6930,7 +6947,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17">
       <c r="A115" s="1">
         <v>98</v>
       </c>
@@ -6976,7 +6993,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17">
       <c r="A116" s="1">
         <v>99</v>
       </c>
@@ -7031,7 +7048,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17">
       <c r="A117" s="1">
         <v>100</v>
       </c>
@@ -7080,7 +7097,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17">
       <c r="A118" s="1">
         <v>101</v>
       </c>
@@ -7126,7 +7143,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17">
       <c r="A119" s="1">
         <v>102</v>
       </c>
@@ -7181,7 +7198,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17">
       <c r="A120" s="1">
         <v>103</v>
       </c>
@@ -7230,7 +7247,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17">
       <c r="A121" s="1">
         <v>104</v>
       </c>
@@ -7276,7 +7293,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17">
       <c r="A122" s="1">
         <v>105</v>
       </c>
@@ -7331,7 +7348,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17">
       <c r="A123" s="1">
         <v>106</v>
       </c>
@@ -7380,7 +7397,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17">
       <c r="A124" s="1">
         <v>107</v>
       </c>
@@ -7426,7 +7443,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17">
       <c r="A125" s="1">
         <v>108</v>
       </c>
@@ -7475,7 +7492,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17">
       <c r="A126" s="1">
         <v>109</v>
       </c>
@@ -7521,7 +7538,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17">
       <c r="A127" s="1">
         <v>110</v>
       </c>
@@ -7576,7 +7593,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17">
       <c r="A128" s="1">
         <v>111</v>
       </c>
@@ -7622,7 +7639,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17">
       <c r="A129" s="1">
         <v>112</v>
       </c>
@@ -7671,7 +7688,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17">
       <c r="A130" s="1">
         <v>113</v>
       </c>
@@ -7720,7 +7737,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17">
       <c r="A131" s="1">
         <v>114</v>
       </c>
@@ -7766,7 +7783,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17">
       <c r="A132" s="1">
         <v>115</v>
       </c>
@@ -7821,7 +7838,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17">
       <c r="A133" s="1">
         <v>116</v>
       </c>
@@ -7870,7 +7887,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17">
       <c r="A134" s="1">
         <v>117</v>
       </c>
@@ -7916,7 +7933,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17">
       <c r="A135" s="1">
         <v>118</v>
       </c>
@@ -7965,7 +7982,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17">
       <c r="A136" s="1">
         <v>119</v>
       </c>
@@ -8014,7 +8031,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17">
       <c r="A137" s="1">
         <v>120</v>
       </c>
@@ -8060,7 +8077,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17">
       <c r="A138" s="1">
         <v>121</v>
       </c>
@@ -8112,7 +8129,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17">
       <c r="A139" s="1">
         <v>122</v>
       </c>
@@ -8161,7 +8178,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17">
       <c r="A140" s="1">
         <v>123</v>
       </c>
@@ -8210,7 +8227,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17">
       <c r="A141" s="1">
         <v>124</v>
       </c>
@@ -8265,7 +8282,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17">
       <c r="A142" s="1">
         <v>125</v>
       </c>
@@ -8314,7 +8331,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17">
       <c r="A143" s="1">
         <v>126</v>
       </c>
@@ -8360,7 +8377,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17">
       <c r="A144" s="1">
         <v>127</v>
       </c>
@@ -8409,7 +8426,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17">
       <c r="A145" s="1">
         <v>128</v>
       </c>
@@ -8455,7 +8472,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17">
       <c r="A146" s="1">
         <v>129</v>
       </c>
@@ -8501,7 +8518,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17">
       <c r="A147" s="1">
         <v>130</v>
       </c>
@@ -8556,7 +8573,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17">
       <c r="A148" s="1">
         <v>131</v>
       </c>
@@ -8602,7 +8619,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17">
       <c r="A149" s="1">
         <v>132</v>
       </c>
@@ -8651,7 +8668,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17">
       <c r="A150" s="1">
         <v>133</v>
       </c>
@@ -8700,7 +8717,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17">
       <c r="A151" s="1">
         <v>134</v>
       </c>
@@ -8746,7 +8763,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17">
       <c r="A152" s="1">
         <v>135</v>
       </c>
@@ -8798,7 +8815,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17">
       <c r="A153" s="1">
         <v>136</v>
       </c>
@@ -8847,7 +8864,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17">
       <c r="A154" s="1">
         <v>137</v>
       </c>
@@ -8896,7 +8913,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17">
       <c r="A155" s="1">
         <v>138</v>
       </c>
@@ -8945,7 +8962,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17">
       <c r="A156" s="1">
         <v>139</v>
       </c>
@@ -8994,7 +9011,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17">
       <c r="A157" s="1">
         <v>140</v>
       </c>
@@ -9040,7 +9057,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17">
       <c r="A158" s="1">
         <v>141</v>
       </c>
@@ -9092,7 +9109,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17">
       <c r="A159" s="1">
         <v>142</v>
       </c>
@@ -9141,7 +9158,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17">
       <c r="A160" s="1">
         <v>143</v>
       </c>
@@ -9190,7 +9207,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17">
       <c r="A161" s="1">
         <v>144</v>
       </c>
@@ -9236,7 +9253,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17">
       <c r="A162" s="1">
         <v>145</v>
       </c>
@@ -9291,7 +9308,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17">
       <c r="A163" s="1">
         <v>146</v>
       </c>
@@ -9340,7 +9357,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17">
       <c r="A164" s="1">
         <v>147</v>
       </c>
@@ -9386,7 +9403,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17">
       <c r="A165" s="1">
         <v>148</v>
       </c>
@@ -9435,7 +9452,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17">
       <c r="A166" s="1">
         <v>149</v>
       </c>
@@ -9481,7 +9498,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17">
       <c r="A167" s="1">
         <v>150</v>
       </c>
@@ -9536,7 +9553,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17">
       <c r="A168" s="1">
         <v>151</v>
       </c>
@@ -9585,7 +9602,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17">
       <c r="A169" s="1">
         <v>152</v>
       </c>
@@ -9631,7 +9648,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17">
       <c r="A170" s="1">
         <v>153</v>
       </c>
@@ -9680,7 +9697,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17">
       <c r="A171" s="1">
         <v>154</v>
       </c>
@@ -9726,7 +9743,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17">
       <c r="A172" s="1">
         <v>155</v>
       </c>
@@ -9781,7 +9798,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17">
       <c r="A173" s="1">
         <v>156</v>
       </c>
@@ -9830,7 +9847,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17">
       <c r="A174" s="1">
         <v>157</v>
       </c>
@@ -9876,7 +9893,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17">
       <c r="A175" s="1">
         <v>158</v>
       </c>
@@ -9925,7 +9942,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17">
       <c r="A176" s="1">
         <v>159</v>
       </c>
@@ -9971,7 +9988,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17">
       <c r="A177" s="1">
         <v>160</v>
       </c>
@@ -10026,7 +10043,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17">
       <c r="A178" s="1">
         <v>161</v>
       </c>
@@ -10075,7 +10092,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17">
       <c r="A179" s="1">
         <v>162</v>
       </c>
@@ -10121,7 +10138,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17">
       <c r="A180" s="1">
         <v>163</v>
       </c>
@@ -10170,7 +10187,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17">
       <c r="A181" s="1">
         <v>164</v>
       </c>
@@ -10216,7 +10233,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17">
       <c r="A182" s="1">
         <v>165</v>
       </c>
@@ -10268,7 +10285,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17">
       <c r="A183" s="1">
         <v>166</v>
       </c>
@@ -10317,7 +10334,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17">
       <c r="A184" s="1">
         <v>167</v>
       </c>
@@ -10366,7 +10383,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17">
       <c r="A185" s="1">
         <v>168</v>
       </c>
@@ -10415,7 +10432,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17">
       <c r="A186" s="1">
         <v>169</v>
       </c>
@@ -10461,7 +10478,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17">
       <c r="A187" s="1">
         <v>170</v>
       </c>
@@ -10516,7 +10533,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17">
       <c r="A188" s="1">
         <v>171</v>
       </c>
@@ -10565,7 +10582,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17">
       <c r="A189" s="1">
         <v>172</v>
       </c>
@@ -10611,7 +10628,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17">
       <c r="A190" s="1">
         <v>173</v>
       </c>
@@ -10657,7 +10674,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17">
       <c r="A191" s="1">
         <v>174</v>
       </c>
@@ -10712,7 +10729,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17">
       <c r="A192" s="1">
         <v>175</v>
       </c>
@@ -10761,7 +10778,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17">
       <c r="A193" s="1">
         <v>176</v>
       </c>
@@ -10807,7 +10824,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17">
       <c r="A194" s="1">
         <v>177</v>
       </c>
@@ -10856,7 +10873,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17">
       <c r="A195" s="1">
         <v>178</v>
       </c>
@@ -10902,7 +10919,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17">
       <c r="A196" s="1">
         <v>179</v>
       </c>
@@ -10957,7 +10974,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17">
       <c r="A197" s="1">
         <v>180</v>
       </c>
@@ -11006,7 +11023,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17">
       <c r="A198" s="1">
         <v>181</v>
       </c>
@@ -11055,7 +11072,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:17">
       <c r="A199" s="1">
         <v>182</v>
       </c>
@@ -11101,7 +11118,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:17">
       <c r="A200" s="1">
         <v>183</v>
       </c>
@@ -11147,7 +11164,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:17">
       <c r="A201" s="1">
         <v>184</v>
       </c>
@@ -11193,7 +11210,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:17">
       <c r="A202" s="1">
         <v>185</v>
       </c>
@@ -11248,7 +11265,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:17">
       <c r="A203" s="1">
         <v>186</v>
       </c>
@@ -11297,7 +11314,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:17">
       <c r="A204" s="1">
         <v>187</v>
       </c>
@@ -11343,7 +11360,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:17">
       <c r="A205" s="1">
         <v>188</v>
       </c>
@@ -11389,7 +11406,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:17">
       <c r="A206" s="1">
         <v>189</v>
       </c>
@@ -11444,7 +11461,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:17">
       <c r="A207" s="1">
         <v>190</v>
       </c>
@@ -11493,7 +11510,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:17">
       <c r="A208" s="1">
         <v>191</v>
       </c>
@@ -11539,7 +11556,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:17">
       <c r="A209" s="1">
         <v>192</v>
       </c>
@@ -11588,7 +11605,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17">
       <c r="A210" s="1">
         <v>193</v>
       </c>
@@ -11637,7 +11654,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17">
       <c r="A211" s="1">
         <v>194</v>
       </c>
@@ -11683,7 +11700,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:17">
       <c r="A212" s="1">
         <v>195</v>
       </c>
@@ -11735,7 +11752,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:17">
       <c r="A213" s="1">
         <v>196</v>
       </c>
@@ -11784,7 +11801,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:17">
       <c r="A214" s="1">
         <v>197</v>
       </c>
@@ -11833,7 +11850,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17">
       <c r="A215" s="1">
         <v>198</v>
       </c>
@@ -11882,7 +11899,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:17">
       <c r="A216" s="1">
         <v>199</v>
       </c>
@@ -11931,7 +11948,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:17">
       <c r="A217" s="1">
         <v>200</v>
       </c>
@@ -11977,7 +11994,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:17">
       <c r="A218" s="1">
         <v>201</v>
       </c>
@@ -12032,7 +12049,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:17">
       <c r="A219" s="1">
         <v>202</v>
       </c>
@@ -12081,7 +12098,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:17">
       <c r="A220" s="1">
         <v>203</v>
       </c>
@@ -12127,7 +12144,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:17">
       <c r="A221" s="1">
         <v>204</v>
       </c>
@@ -12176,7 +12193,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:17">
       <c r="A222" s="1">
         <v>205</v>
       </c>
@@ -12225,7 +12242,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:17">
       <c r="A223" s="1">
         <v>206</v>
       </c>
@@ -12271,7 +12288,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:17">
       <c r="A224" s="1">
         <v>207</v>
       </c>
@@ -12326,7 +12343,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:17">
       <c r="A225" s="1">
         <v>208</v>
       </c>
@@ -12375,7 +12392,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:17">
       <c r="A226" s="1">
         <v>209</v>
       </c>
@@ -12421,7 +12438,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:17">
       <c r="A227" s="1">
         <v>210</v>
       </c>
@@ -12470,7 +12487,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:17">
       <c r="A228" s="1">
         <v>211</v>
       </c>
@@ -12516,7 +12533,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:17">
       <c r="A229" s="1">
         <v>212</v>
       </c>
@@ -12562,7 +12579,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:17">
       <c r="A230" s="1">
         <v>213</v>
       </c>
@@ -12617,7 +12634,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:17">
       <c r="A231" s="1">
         <v>214</v>
       </c>
@@ -12666,7 +12683,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:17">
       <c r="A232" s="1">
         <v>215</v>
       </c>
@@ -12715,7 +12732,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:17">
       <c r="A233" s="1">
         <v>216</v>
       </c>
@@ -12761,7 +12778,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:17">
       <c r="A234" s="1">
         <v>217</v>
       </c>
@@ -12807,7 +12824,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:17">
       <c r="A235" s="1">
         <v>218</v>
       </c>
@@ -12859,7 +12876,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:17">
       <c r="A236" s="1">
         <v>219</v>
       </c>
@@ -12908,7 +12925,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:17">
       <c r="A237" s="1">
         <v>220</v>
       </c>
@@ -12957,7 +12974,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:17">
       <c r="A238" s="1">
         <v>221</v>
       </c>
@@ -13006,7 +13023,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:17">
       <c r="A239" s="1">
         <v>222</v>
       </c>
@@ -13052,7 +13069,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:17">
       <c r="A240" s="1">
         <v>223</v>
       </c>
@@ -13104,7 +13121,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:17">
       <c r="A241" s="1">
         <v>224</v>
       </c>
@@ -13153,7 +13170,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:17">
       <c r="A242" s="1">
         <v>225</v>
       </c>
@@ -13202,7 +13219,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:17">
       <c r="A243" s="1">
         <v>226</v>
       </c>
@@ -13251,7 +13268,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:17">
       <c r="A244" s="1">
         <v>227</v>
       </c>
@@ -13297,7 +13314,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:17">
       <c r="A245" s="1">
         <v>228</v>
       </c>
@@ -13352,7 +13369,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:17">
       <c r="A246" s="1">
         <v>229</v>
       </c>
@@ -13401,7 +13418,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:17">
       <c r="A247" s="1">
         <v>230</v>
       </c>
@@ -13447,7 +13464,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:17">
       <c r="A248" s="1">
         <v>231</v>
       </c>
@@ -13496,7 +13513,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:17">
       <c r="A249" s="1">
         <v>232</v>
       </c>
@@ -13542,7 +13559,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:17">
       <c r="A250" s="1">
         <v>233</v>
       </c>
@@ -13597,7 +13614,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:17">
       <c r="A251" s="1">
         <v>234</v>
       </c>
@@ -13646,7 +13663,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:17">
       <c r="A252" s="1">
         <v>235</v>
       </c>
@@ -13692,7 +13709,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:17">
       <c r="A253" s="1">
         <v>236</v>
       </c>
@@ -13741,7 +13758,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:17">
       <c r="A254" s="1">
         <v>237</v>
       </c>
@@ -13787,7 +13804,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:17">
       <c r="A255" s="1">
         <v>238</v>
       </c>
@@ -13842,7 +13859,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:17">
       <c r="A256" s="1">
         <v>239</v>
       </c>
@@ -13891,7 +13908,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:17">
       <c r="A257" s="1">
         <v>240</v>
       </c>
@@ -13937,7 +13954,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:17">
       <c r="A258" s="1">
         <v>241</v>
       </c>
@@ -13986,7 +14003,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:17">
       <c r="A259" s="1">
         <v>242</v>
       </c>
@@ -14032,7 +14049,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:17">
       <c r="A260" s="1">
         <v>243</v>
       </c>
@@ -14084,7 +14101,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:17">
       <c r="A261" s="1">
         <v>244</v>
       </c>
@@ -14133,7 +14150,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:17">
       <c r="A262" s="1">
         <v>245</v>
       </c>
@@ -14182,7 +14199,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:17">
       <c r="A263" s="1">
         <v>246</v>
       </c>
@@ -14228,7 +14245,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:17">
       <c r="A264" s="1">
         <v>247</v>
       </c>
@@ -14283,7 +14300,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:17">
       <c r="A265" s="1">
         <v>248</v>
       </c>
@@ -14332,7 +14349,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:17">
       <c r="A266" s="1">
         <v>249</v>
       </c>
@@ -14378,7 +14395,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:17">
       <c r="A267" s="1">
         <v>250</v>
       </c>
@@ -14433,7 +14450,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:17">
       <c r="A268" s="1">
         <v>251</v>
       </c>
@@ -14482,7 +14499,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:17">
       <c r="A269" s="1">
         <v>252</v>
       </c>
@@ -14528,7 +14545,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:17">
       <c r="A270" s="1">
         <v>253</v>
       </c>
@@ -14577,7 +14594,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:17">
       <c r="A271" s="1">
         <v>254</v>
       </c>
@@ -14626,7 +14643,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:17">
       <c r="A272" s="1">
         <v>255</v>
       </c>
@@ -14672,7 +14689,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:17">
       <c r="A273" s="1">
         <v>256</v>
       </c>
@@ -14727,7 +14744,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:17">
       <c r="A274" s="1">
         <v>257</v>
       </c>
@@ -14776,7 +14793,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:17">
       <c r="A275" s="1">
         <v>258</v>
       </c>
@@ -14825,7 +14842,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:17">
       <c r="A276" s="1">
         <v>259</v>
       </c>
@@ -14874,7 +14891,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:17">
       <c r="A277" s="1">
         <v>260</v>
       </c>
@@ -14920,7 +14937,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:17">
       <c r="A278" s="1">
         <v>261</v>
       </c>
@@ -14966,7 +14983,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:17">
       <c r="A279" s="1">
         <v>262</v>
       </c>
@@ -15021,7 +15038,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:17">
       <c r="A280" s="1">
         <v>263</v>
       </c>
@@ -15070,7 +15087,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:17">
       <c r="A281" s="1">
         <v>264</v>
       </c>
@@ -15116,7 +15133,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:17">
       <c r="A282" s="1">
         <v>265</v>
       </c>
@@ -15165,7 +15182,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:17">
       <c r="A283" s="1">
         <v>266</v>
       </c>
@@ -15214,7 +15231,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:17">
       <c r="A284" s="1">
         <v>267</v>
       </c>
@@ -15260,7 +15277,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:17">
       <c r="A285" s="1">
         <v>268</v>
       </c>
@@ -15315,7 +15332,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:17">
       <c r="A286" s="1">
         <v>269</v>
       </c>
@@ -15364,7 +15381,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:17">
       <c r="A287" s="1">
         <v>270</v>
       </c>
@@ -15410,7 +15427,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:17">
       <c r="A288" s="1">
         <v>271</v>
       </c>
@@ -15459,7 +15476,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:17">
       <c r="A289" s="1">
         <v>272</v>
       </c>
@@ -15505,7 +15522,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:17">
       <c r="A290" s="1">
         <v>273</v>
       </c>
@@ -15551,7 +15568,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:17">
       <c r="A291" s="1">
         <v>274</v>
       </c>
@@ -15606,7 +15623,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:17">
       <c r="A292" s="1">
         <v>275</v>
       </c>
@@ -15655,7 +15672,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:17">
       <c r="A293" s="1">
         <v>276</v>
       </c>
@@ -15704,7 +15721,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:17">
       <c r="A294" s="1">
         <v>277</v>
       </c>
@@ -15750,7 +15767,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:17">
       <c r="A295" s="1">
         <v>278</v>
       </c>
@@ -15796,7 +15813,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:17">
       <c r="A296" s="1">
         <v>279</v>
       </c>
@@ -15848,7 +15865,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:17">
       <c r="A297" s="1">
         <v>280</v>
       </c>
@@ -15894,7 +15911,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:17">
       <c r="A298" s="1">
         <v>281</v>
       </c>
@@ -15942,7 +15959,7 @@
         <v>Bool</v>
       </c>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:17">
       <c r="A299" s="1">
         <v>282</v>
       </c>
@@ -15984,7 +16001,7 @@
         <v>Bool</v>
       </c>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:17">
       <c r="A300" s="1">
         <v>283</v>
       </c>
@@ -16026,7 +16043,7 @@
         <v>Bool</v>
       </c>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:17">
       <c r="A301" s="1">
         <v>284</v>
       </c>
@@ -16068,7 +16085,7 @@
         <v>Bool</v>
       </c>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:17">
       <c r="A302" s="1"/>
       <c r="C302" t="s">
         <v>386</v>
@@ -16098,7 +16115,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:17">
       <c r="A303" s="1"/>
       <c r="C303" t="s">
         <v>387</v>
@@ -16125,7 +16142,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:17">
       <c r="A304" s="1"/>
       <c r="C304" t="s">
         <v>388</v>
@@ -16152,7 +16169,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19">
       <c r="A305" s="1"/>
       <c r="C305" t="s">
         <v>389</v>
@@ -16179,7 +16196,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19">
       <c r="C306" t="s">
         <v>386</v>
       </c>
@@ -16212,7 +16229,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19">
       <c r="C307" t="s">
         <v>387</v>
       </c>
@@ -16242,7 +16259,7 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19">
       <c r="C308" t="s">
         <v>388</v>
       </c>
@@ -16272,7 +16289,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19">
       <c r="C309" t="s">
         <v>389</v>
       </c>
@@ -16302,7 +16319,7 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19">
       <c r="A310" s="1">
         <v>285</v>
       </c>
@@ -16351,7 +16368,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19">
       <c r="A311" s="1">
         <v>286</v>
       </c>
@@ -16397,7 +16414,7 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19">
       <c r="A312" s="1">
         <v>287</v>
       </c>
@@ -16443,7 +16460,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19">
       <c r="A313" s="1">
         <v>288</v>
       </c>
@@ -16489,7 +16506,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19">
       <c r="A314" s="1">
         <v>289</v>
       </c>
@@ -16535,7 +16552,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19">
       <c r="A315" s="1">
         <v>290</v>
       </c>
@@ -16587,7 +16604,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19">
       <c r="A316" s="1">
         <v>291</v>
       </c>
@@ -16636,7 +16653,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19">
       <c r="A317" s="1">
         <v>292</v>
       </c>
@@ -16685,7 +16702,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19">
       <c r="A318" s="1">
         <v>293</v>
       </c>
@@ -16731,7 +16748,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19">
       <c r="A319" s="1">
         <v>294</v>
       </c>
@@ -16783,7 +16800,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19">
       <c r="A320" s="1">
         <v>295</v>
       </c>
@@ -16832,7 +16849,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:17">
       <c r="A321" s="1">
         <v>296</v>
       </c>
@@ -16881,7 +16898,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:17">
       <c r="A322" s="1">
         <v>297</v>
       </c>
@@ -16930,7 +16947,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:17">
       <c r="A323" s="1">
         <v>298</v>
       </c>
@@ -16976,7 +16993,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:17">
       <c r="A324" s="1">
         <v>299</v>
       </c>
@@ -17028,7 +17045,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:17">
       <c r="A325" s="1">
         <v>300</v>
       </c>
@@ -17077,7 +17094,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:17">
       <c r="A326" s="1">
         <v>301</v>
       </c>
@@ -17126,7 +17143,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:17">
       <c r="A327" s="1">
         <v>302</v>
       </c>
@@ -17172,7 +17189,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:17">
       <c r="A328" s="1">
         <v>303</v>
       </c>
@@ -17224,7 +17241,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:17">
       <c r="A329" s="1">
         <v>304</v>
       </c>
@@ -17273,7 +17290,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:17">
       <c r="A330" s="1">
         <v>305</v>
       </c>
@@ -17319,7 +17336,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:17">
       <c r="A331" s="1">
         <v>306</v>
       </c>
@@ -17365,7 +17382,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:17">
       <c r="A332" s="1">
         <v>307</v>
       </c>
@@ -17414,7 +17431,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:17">
       <c r="A333" s="1">
         <v>308</v>
       </c>
@@ -17460,7 +17477,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:17">
       <c r="A334" s="1">
         <v>309</v>
       </c>
@@ -17512,7 +17529,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:17">
       <c r="A335" s="1">
         <v>310</v>
       </c>
@@ -17561,7 +17578,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:17">
       <c r="A336" s="1">
         <v>311</v>
       </c>
@@ -17610,7 +17627,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:17">
       <c r="A337" s="1">
         <v>312</v>
       </c>
@@ -17656,7 +17673,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:17">
       <c r="A338" s="1">
         <v>313</v>
       </c>
@@ -17708,7 +17725,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:17">
       <c r="A339" s="1">
         <v>314</v>
       </c>
@@ -17757,7 +17774,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:17">
       <c r="A340" s="1">
         <v>315</v>
       </c>
@@ -17806,7 +17823,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:17">
       <c r="A341" s="1">
         <v>316</v>
       </c>
@@ -17852,7 +17869,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:17">
       <c r="A342" s="1">
         <v>317</v>
       </c>
@@ -17898,7 +17915,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:17">
       <c r="A343" s="1">
         <v>318</v>
       </c>
@@ -17950,7 +17967,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:17">
       <c r="A344" s="1">
         <v>319</v>
       </c>
@@ -17999,7 +18016,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:17">
       <c r="A345" s="1">
         <v>320</v>
       </c>
@@ -18045,7 +18062,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:17">
       <c r="A346" s="1">
         <v>321</v>
       </c>
@@ -18094,7 +18111,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:17">
       <c r="A347" s="1">
         <v>322</v>
       </c>
@@ -18140,7 +18157,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:17">
       <c r="A348" s="1">
         <v>323</v>
       </c>
@@ -18192,7 +18209,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:17">
       <c r="A349" s="1">
         <v>324</v>
       </c>
@@ -18241,7 +18258,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:17">
       <c r="A350" s="1">
         <v>325</v>
       </c>
@@ -18290,7 +18307,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:17">
       <c r="A351" s="1">
         <v>326</v>
       </c>
@@ -18339,7 +18356,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:17">
       <c r="A352" s="1">
         <v>327</v>
       </c>
@@ -18385,7 +18402,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:17">
       <c r="A353" s="1">
         <v>328</v>
       </c>
@@ -18437,7 +18454,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:17">
       <c r="A354" s="1">
         <v>329</v>
       </c>
@@ -18486,7 +18503,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:17">
       <c r="A355" s="1">
         <v>330</v>
       </c>
@@ -18535,7 +18552,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:17">
       <c r="A356" s="1">
         <v>331</v>
       </c>
@@ -18581,7 +18598,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:17">
       <c r="A357" s="1">
         <v>332</v>
       </c>
@@ -18633,7 +18650,7 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:17">
       <c r="A358" s="1">
         <v>333</v>
       </c>
@@ -18682,7 +18699,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:17">
       <c r="A359" s="1">
         <v>334</v>
       </c>
@@ -18731,7 +18748,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:17">
       <c r="A360" s="1">
         <v>335</v>
       </c>
@@ -18777,7 +18794,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:17">
       <c r="A361" s="1">
         <v>336</v>
       </c>
@@ -18829,7 +18846,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:17">
       <c r="A362" s="1">
         <v>337</v>
       </c>
@@ -18878,7 +18895,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:17">
       <c r="A363" s="1">
         <v>338</v>
       </c>
@@ -18927,7 +18944,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:17">
       <c r="A364" s="1">
         <v>339</v>
       </c>
@@ -18973,7 +18990,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:17">
       <c r="A365" s="1">
         <v>340</v>
       </c>
@@ -19025,7 +19042,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:17">
       <c r="A366" s="1">
         <v>341</v>
       </c>
@@ -19074,7 +19091,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:17">
       <c r="A367" s="1">
         <v>342</v>
       </c>
@@ -19123,7 +19140,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:17">
       <c r="A368" s="1">
         <v>343</v>
       </c>
@@ -19169,7 +19186,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:17">
       <c r="A369" s="1">
         <v>344</v>
       </c>
@@ -19221,7 +19238,7 @@
         <v/>
       </c>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:17">
       <c r="A370" s="1">
         <v>345</v>
       </c>
@@ -19270,7 +19287,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:17">
       <c r="A371" s="1">
         <v>346</v>
       </c>
@@ -19316,7 +19333,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:17">
       <c r="A372" s="1">
         <v>347</v>
       </c>
@@ -19365,7 +19382,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:17">
       <c r="A373" s="1">
         <v>348</v>
       </c>
@@ -19411,7 +19428,7 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:17">
       <c r="A374" s="1">
         <v>349</v>
       </c>
@@ -19463,7 +19480,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:17">
       <c r="A375" s="1">
         <v>350</v>
       </c>
@@ -19512,7 +19529,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:17">
       <c r="A376" s="1">
         <v>351</v>
       </c>
@@ -19561,7 +19578,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:17">
       <c r="A377" s="1">
         <v>352</v>
       </c>
@@ -19607,7 +19624,7 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:17">
       <c r="A378" s="1">
         <v>353</v>
       </c>
@@ -19659,7 +19676,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:17">
       <c r="A379" s="1">
         <v>354</v>
       </c>
@@ -19708,7 +19725,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:17">
       <c r="A380" s="1">
         <v>355</v>
       </c>
@@ -19757,7 +19774,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:17">
       <c r="A381" s="1">
         <v>356</v>
       </c>
@@ -19803,7 +19820,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:17">
       <c r="A382" s="1">
         <v>357</v>
       </c>
@@ -19855,7 +19872,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:17">
       <c r="A383" s="1">
         <v>358</v>
       </c>
@@ -19904,7 +19921,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:17">
       <c r="A384" s="1">
         <v>359</v>
       </c>
@@ -19953,7 +19970,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:17">
       <c r="A385" s="1">
         <v>360</v>
       </c>
@@ -19999,7 +20016,7 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:17">
       <c r="A386" s="1">
         <v>361</v>
       </c>
@@ -20051,7 +20068,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:17">
       <c r="A387" s="1">
         <v>362</v>
       </c>
@@ -20100,7 +20117,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:17">
       <c r="A388" s="1">
         <v>363</v>
       </c>
@@ -20149,7 +20166,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:17">
       <c r="A389" s="1">
         <v>364</v>
       </c>
@@ -20195,7 +20212,7 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:17">
       <c r="A390" s="1">
         <v>365</v>
       </c>
@@ -20246,7 +20263,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:17">
       <c r="A391" s="1">
         <v>366</v>
       </c>
@@ -20295,7 +20312,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:17">
       <c r="A392" s="1">
         <v>367</v>
       </c>
@@ -20344,7 +20361,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:17">
       <c r="A393" s="1">
         <v>368</v>
       </c>
@@ -20390,7 +20407,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:17">
       <c r="A394" s="1">
         <v>369</v>
       </c>
@@ -20442,7 +20459,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:17">
       <c r="A395" s="1">
         <v>370</v>
       </c>
@@ -20491,7 +20508,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:17">
       <c r="A396" s="1">
         <v>371</v>
       </c>
@@ -20540,7 +20557,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:17">
       <c r="A397" s="1">
         <v>372</v>
       </c>
@@ -20586,7 +20603,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:17">
       <c r="A398" s="1">
         <v>373</v>
       </c>
@@ -20638,7 +20655,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:17">
       <c r="A399" s="1">
         <v>374</v>
       </c>
@@ -20687,7 +20704,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:17">
       <c r="A400" s="1">
         <v>375</v>
       </c>
@@ -20736,7 +20753,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="401" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:17">
       <c r="A401" s="1">
         <v>376</v>
       </c>
@@ -20782,7 +20799,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:17">
       <c r="A402" s="1">
         <v>377</v>
       </c>
@@ -20837,7 +20854,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="403" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:17">
       <c r="A403" s="1">
         <v>378</v>
       </c>
@@ -20883,7 +20900,7 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:17">
       <c r="A404" s="1">
         <v>379</v>
       </c>
@@ -20929,7 +20946,7 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:17">
       <c r="A405" s="1">
         <v>380</v>
       </c>
@@ -20981,7 +20998,7 @@
         <v/>
       </c>
     </row>
-    <row r="406" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:17">
       <c r="A406" s="1">
         <v>381</v>
       </c>
@@ -21030,7 +21047,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="407" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:17">
       <c r="A407" s="1">
         <v>382</v>
       </c>
@@ -21079,7 +21096,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="408" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:17">
       <c r="A408" s="1">
         <v>383</v>
       </c>
@@ -21125,7 +21142,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:17">
       <c r="A409" s="1">
         <v>384</v>
       </c>
@@ -21177,7 +21194,7 @@
         <v/>
       </c>
     </row>
-    <row r="410" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:17">
       <c r="A410" s="1">
         <v>385</v>
       </c>
@@ -21226,7 +21243,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="411" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:17">
       <c r="A411" s="1">
         <v>386</v>
       </c>
@@ -21272,7 +21289,7 @@
         <v/>
       </c>
     </row>
-    <row r="412" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:17">
       <c r="A412" s="1">
         <v>387</v>
       </c>
@@ -21321,7 +21338,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="413" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:17">
       <c r="A413" s="1">
         <v>388</v>
       </c>
@@ -21367,7 +21384,7 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:17">
       <c r="A414" s="1">
         <v>389</v>
       </c>
@@ -21419,7 +21436,7 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:17">
       <c r="A415" s="1">
         <v>390</v>
       </c>
@@ -21468,7 +21485,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="416" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:17">
       <c r="A416" s="1">
         <v>391</v>
       </c>
@@ -21517,7 +21534,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="417" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:17">
       <c r="A417" s="1">
         <v>392</v>
       </c>
@@ -21563,7 +21580,7 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:17">
       <c r="A418" s="1">
         <v>393</v>
       </c>
@@ -21615,7 +21632,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:17">
       <c r="A419" s="1">
         <v>394</v>
       </c>
@@ -21664,7 +21681,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="420" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:17">
       <c r="A420" s="1">
         <v>395</v>
       </c>
@@ -21713,7 +21730,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="421" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:17">
       <c r="A421" s="1">
         <v>396</v>
       </c>
@@ -21759,7 +21776,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:17">
       <c r="A422" s="1">
         <v>397</v>
       </c>
@@ -21805,7 +21822,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:17">
       <c r="A423" s="1">
         <v>398</v>
       </c>
@@ -21857,7 +21874,7 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:17">
       <c r="A424" s="1">
         <v>399</v>
       </c>
@@ -21906,7 +21923,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="425" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:17">
       <c r="A425" s="1">
         <v>400</v>
       </c>
@@ -21955,7 +21972,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="426" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:17">
       <c r="A426" s="1">
         <v>401</v>
       </c>
@@ -22001,7 +22018,7 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:17">
       <c r="A427" s="1">
         <v>402</v>
       </c>
@@ -22053,7 +22070,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:17">
       <c r="A428" s="1">
         <v>403</v>
       </c>
@@ -22102,7 +22119,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="429" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:17">
       <c r="A429" s="1">
         <v>404</v>
       </c>
@@ -22151,7 +22168,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="430" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:17">
       <c r="A430" s="1">
         <v>405</v>
       </c>
@@ -22197,7 +22214,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:17">
       <c r="A431" s="1">
         <v>406</v>
       </c>
@@ -22249,7 +22266,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:17">
       <c r="A432" s="1">
         <v>407</v>
       </c>
@@ -22298,7 +22315,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="433" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:17">
       <c r="A433" s="1">
         <v>408</v>
       </c>
@@ -22344,7 +22361,7 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:17">
       <c r="A434" s="1">
         <v>409</v>
       </c>
@@ -22393,7 +22410,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="435" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:17">
       <c r="A435" s="1">
         <v>410</v>
       </c>
@@ -22439,7 +22456,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:17">
       <c r="A436" s="1">
         <v>411</v>
       </c>
@@ -22491,7 +22508,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:17">
       <c r="A437" s="1">
         <v>412</v>
       </c>
@@ -22540,7 +22557,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="438" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:17">
       <c r="A438" s="1">
         <v>413</v>
       </c>
@@ -22586,7 +22603,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:17">
       <c r="A439" s="1">
         <v>414</v>
       </c>
@@ -22635,7 +22652,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="440" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:17">
       <c r="A440" s="1">
         <v>415</v>
       </c>
@@ -22684,7 +22701,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="441" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:17">
       <c r="A441" s="1">
         <v>416</v>
       </c>
@@ -22730,7 +22747,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:17">
       <c r="A442" s="1">
         <v>417</v>
       </c>
@@ -22782,7 +22799,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:17">
       <c r="A443" s="1">
         <v>418</v>
       </c>
@@ -22831,7 +22848,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="444" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:17">
       <c r="A444" s="1">
         <v>419</v>
       </c>
@@ -22880,7 +22897,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="445" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:17">
       <c r="A445" s="1">
         <v>420</v>
       </c>
@@ -22926,7 +22943,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:17">
       <c r="A446" s="1">
         <v>421</v>
       </c>
@@ -22978,7 +22995,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:17">
       <c r="A447" s="1">
         <v>422</v>
       </c>
@@ -23027,7 +23044,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="448" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:17">
       <c r="A448" s="1">
         <v>423</v>
       </c>
@@ -23076,7 +23093,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="449" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:17">
       <c r="A449" s="1">
         <v>424</v>
       </c>
@@ -23122,7 +23139,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:17">
       <c r="A450" s="1">
         <v>425</v>
       </c>
@@ -23174,7 +23191,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:17">
       <c r="A451" s="1">
         <v>426</v>
       </c>
@@ -23223,7 +23240,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="452" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:17">
       <c r="A452" s="1">
         <v>427</v>
       </c>
@@ -23272,7 +23289,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="453" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:17">
       <c r="A453" s="1">
         <v>428</v>
       </c>
@@ -23318,7 +23335,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:17">
       <c r="A454" s="1">
         <v>429</v>
       </c>
@@ -23364,7 +23381,7 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:17">
       <c r="A455" s="1">
         <v>430</v>
       </c>
@@ -23416,7 +23433,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:17">
       <c r="A456" s="1">
         <v>431</v>
       </c>
@@ -23465,7 +23482,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="457" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:17">
       <c r="A457" s="1">
         <v>432</v>
       </c>
@@ -23514,7 +23531,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="458" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:17">
       <c r="A458" s="1">
         <v>433</v>
       </c>
@@ -23560,7 +23577,7 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:17">
       <c r="A459" s="1">
         <v>434</v>
       </c>
@@ -23612,7 +23629,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:17">
       <c r="A460" s="1">
         <v>435</v>
       </c>
@@ -23661,7 +23678,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="461" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:17">
       <c r="A461" s="1">
         <v>436</v>
       </c>
@@ -23710,7 +23727,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="462" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:17">
       <c r="A462" s="1">
         <v>437</v>
       </c>
@@ -23759,7 +23776,7 @@
         <v>fahrenheit</v>
       </c>
     </row>
-    <row r="463" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:17">
       <c r="A463" s="1">
         <v>438</v>
       </c>
@@ -23820,13 +23837,13 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -23837,7 +23854,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -23845,7 +23862,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>35</v>
       </c>

--- a/assets/List_AllInputs.xlsx
+++ b/assets/List_AllInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coals01826\Desktop\Coding\hanson-bas\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5059EE0D-0B1A-417A-9DAC-D820BA9B5C87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3738D3-F79A-4466-B6BC-C97BE807648C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18615" yWindow="-120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1609,7 +1609,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18:XFD22"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
